--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -5577,28 +5577,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9665.931161017845</v>
+        <v>10331.44811114519</v>
       </c>
       <c r="AB2" t="n">
-        <v>13225.35344529222</v>
+        <v>14135.94309699218</v>
       </c>
       <c r="AC2" t="n">
-        <v>11963.14427437317</v>
+        <v>12786.82852773546</v>
       </c>
       <c r="AD2" t="n">
-        <v>9665931.161017844</v>
+        <v>10331448.11114519</v>
       </c>
       <c r="AE2" t="n">
-        <v>13225353.44529222</v>
+        <v>14135943.09699218</v>
       </c>
       <c r="AF2" t="n">
         <v>1.183934601525561e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>133</v>
+        <v>132.5651041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>11963144.27437317</v>
+        <v>12786828.52773546</v>
       </c>
     </row>
     <row r="3">
@@ -5683,28 +5683,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4658.793439278151</v>
+        <v>5079.631523065569</v>
       </c>
       <c r="AB3" t="n">
-        <v>6374.366715081589</v>
+        <v>6950.175947385497</v>
       </c>
       <c r="AC3" t="n">
-        <v>5766.006102273836</v>
+        <v>6286.86090959997</v>
       </c>
       <c r="AD3" t="n">
-        <v>4658793.439278151</v>
+        <v>5079631.523065569</v>
       </c>
       <c r="AE3" t="n">
-        <v>6374366.715081589</v>
+        <v>6950175.947385497</v>
       </c>
       <c r="AF3" t="n">
         <v>1.877516325937909e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>84</v>
+        <v>83.59375</v>
       </c>
       <c r="AH3" t="n">
-        <v>5766006.102273837</v>
+        <v>6286860.90959997</v>
       </c>
     </row>
     <row r="4">
@@ -5789,28 +5789,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3814.072489099558</v>
+        <v>4185.86648130875</v>
       </c>
       <c r="AB4" t="n">
-        <v>5218.582244588985</v>
+        <v>5727.287187122943</v>
       </c>
       <c r="AC4" t="n">
-        <v>4720.528079491397</v>
+        <v>5180.682936281766</v>
       </c>
       <c r="AD4" t="n">
-        <v>3814072.489099558</v>
+        <v>4185866.48130875</v>
       </c>
       <c r="AE4" t="n">
-        <v>5218582.244588985</v>
+        <v>5727287.187122943</v>
       </c>
       <c r="AF4" t="n">
         <v>2.142461169569877e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>74</v>
+        <v>73.26171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>4720528.079491397</v>
+        <v>5180682.936281766</v>
       </c>
     </row>
     <row r="5">
@@ -5895,28 +5895,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3444.678127703806</v>
+        <v>3787.242206747218</v>
       </c>
       <c r="AB5" t="n">
-        <v>4713.160582798215</v>
+        <v>5181.871868605994</v>
       </c>
       <c r="AC5" t="n">
-        <v>4263.3431517382</v>
+        <v>4687.321290268887</v>
       </c>
       <c r="AD5" t="n">
-        <v>3444678.127703806</v>
+        <v>3787242.206747218</v>
       </c>
       <c r="AE5" t="n">
-        <v>4713160.582798215</v>
+        <v>5181871.868605994</v>
       </c>
       <c r="AF5" t="n">
         <v>2.287108035974955e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>69</v>
+        <v>68.62630208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>4263343.151738199</v>
+        <v>4687321.290268887</v>
       </c>
     </row>
     <row r="6">
@@ -6001,28 +6001,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3249.274535393445</v>
+        <v>3581.948607940024</v>
       </c>
       <c r="AB6" t="n">
-        <v>4445.800767201082</v>
+        <v>4900.9801098036</v>
       </c>
       <c r="AC6" t="n">
-        <v>4021.499781699809</v>
+        <v>4433.237446692544</v>
       </c>
       <c r="AD6" t="n">
-        <v>3249274.535393445</v>
+        <v>3581948.607940024</v>
       </c>
       <c r="AE6" t="n">
-        <v>4445800.767201082</v>
+        <v>4900980.109803599</v>
       </c>
       <c r="AF6" t="n">
         <v>2.374860468260702e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>67</v>
+        <v>66.09375</v>
       </c>
       <c r="AH6" t="n">
-        <v>4021499.781699809</v>
+        <v>4433237.446692544</v>
       </c>
     </row>
     <row r="7">
@@ -6107,28 +6107,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3111.620090857811</v>
+        <v>3434.50564213404</v>
       </c>
       <c r="AB7" t="n">
-        <v>4257.455883301925</v>
+        <v>4699.24213926327</v>
       </c>
       <c r="AC7" t="n">
-        <v>3851.13026917629</v>
+        <v>4250.753064919571</v>
       </c>
       <c r="AD7" t="n">
-        <v>3111620.090857811</v>
+        <v>3434505.64213404</v>
       </c>
       <c r="AE7" t="n">
-        <v>4257455.883301926</v>
+        <v>4699242.13926327</v>
       </c>
       <c r="AF7" t="n">
         <v>2.436094308372185e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>65</v>
+        <v>64.42708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3851130.26917629</v>
+        <v>4250753.064919571</v>
       </c>
     </row>
     <row r="8">
@@ -6213,28 +6213,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3016.581249682712</v>
+        <v>3329.712445107374</v>
       </c>
       <c r="AB8" t="n">
-        <v>4127.419547988389</v>
+        <v>4555.859463941811</v>
       </c>
       <c r="AC8" t="n">
-        <v>3733.504419197941</v>
+        <v>4121.054630891949</v>
       </c>
       <c r="AD8" t="n">
-        <v>3016581.249682712</v>
+        <v>3329712.445107374</v>
       </c>
       <c r="AE8" t="n">
-        <v>4127419.54798839</v>
+        <v>4555859.463941811</v>
       </c>
       <c r="AF8" t="n">
         <v>2.480211602625733e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>64</v>
+        <v>63.28125</v>
       </c>
       <c r="AH8" t="n">
-        <v>3733504.419197941</v>
+        <v>4121054.630891949</v>
       </c>
     </row>
     <row r="9">
@@ -6319,28 +6319,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2935.502198329304</v>
+        <v>3248.599228335185</v>
       </c>
       <c r="AB9" t="n">
-        <v>4016.483612971354</v>
+        <v>4444.876782291526</v>
       </c>
       <c r="AC9" t="n">
-        <v>3633.156054119371</v>
+        <v>4020.6639806132</v>
       </c>
       <c r="AD9" t="n">
-        <v>2935502.198329303</v>
+        <v>3248599.228335185</v>
       </c>
       <c r="AE9" t="n">
-        <v>4016483.612971353</v>
+        <v>4444876.782291526</v>
       </c>
       <c r="AF9" t="n">
         <v>2.515891163005653e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>63</v>
+        <v>62.38932291666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>3633156.054119371</v>
+        <v>4020663.9806132</v>
       </c>
     </row>
     <row r="10">
@@ -6425,28 +6425,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2870.443889647549</v>
+        <v>3183.608239461135</v>
       </c>
       <c r="AB10" t="n">
-        <v>3927.467964862959</v>
+        <v>4355.953244113973</v>
       </c>
       <c r="AC10" t="n">
-        <v>3552.635934532198</v>
+        <v>3940.227180114346</v>
       </c>
       <c r="AD10" t="n">
-        <v>2870443.889647549</v>
+        <v>3183608.239461135</v>
       </c>
       <c r="AE10" t="n">
-        <v>3927467.964862959</v>
+        <v>4355953.244113972</v>
       </c>
       <c r="AF10" t="n">
         <v>2.542168677069242e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>62</v>
+        <v>61.73828125</v>
       </c>
       <c r="AH10" t="n">
-        <v>3552635.934532198</v>
+        <v>3940227.180114346</v>
       </c>
     </row>
     <row r="11">
@@ -6531,28 +6531,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2825.689670699977</v>
+        <v>3129.03234485429</v>
       </c>
       <c r="AB11" t="n">
-        <v>3866.233268082095</v>
+        <v>4281.280097394342</v>
       </c>
       <c r="AC11" t="n">
-        <v>3497.245391268666</v>
+        <v>3872.68073371322</v>
       </c>
       <c r="AD11" t="n">
-        <v>2825689.670699977</v>
+        <v>3129032.34485429</v>
       </c>
       <c r="AE11" t="n">
-        <v>3866233.268082094</v>
+        <v>4281280.097394343</v>
       </c>
       <c r="AF11" t="n">
         <v>2.562419238365952e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>62</v>
+        <v>61.25</v>
       </c>
       <c r="AH11" t="n">
-        <v>3497245.391268666</v>
+        <v>3872680.73371322</v>
       </c>
     </row>
     <row r="12">
@@ -6637,28 +6637,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2769.268157871922</v>
+        <v>3082.398342266726</v>
       </c>
       <c r="AB12" t="n">
-        <v>3789.034865089274</v>
+        <v>4217.473397707039</v>
       </c>
       <c r="AC12" t="n">
-        <v>3427.414695508844</v>
+        <v>3814.963655890811</v>
       </c>
       <c r="AD12" t="n">
-        <v>2769268.157871922</v>
+        <v>3082398.342266726</v>
       </c>
       <c r="AE12" t="n">
-        <v>3789034.865089274</v>
+        <v>4217473.397707039</v>
       </c>
       <c r="AF12" t="n">
         <v>2.581946565330638e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>61</v>
+        <v>60.79427083333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>3427414.695508844</v>
+        <v>3814963.65589081</v>
       </c>
     </row>
     <row r="13">
@@ -6743,28 +6743,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2731.516470906986</v>
+        <v>3034.824979642519</v>
       </c>
       <c r="AB13" t="n">
-        <v>3737.381341496962</v>
+        <v>4152.381424175962</v>
       </c>
       <c r="AC13" t="n">
-        <v>3380.690911712008</v>
+        <v>3756.083968956383</v>
       </c>
       <c r="AD13" t="n">
-        <v>2731516.470906986</v>
+        <v>3034824.979642519</v>
       </c>
       <c r="AE13" t="n">
-        <v>3737381.341496962</v>
+        <v>4152381.424175962</v>
       </c>
       <c r="AF13" t="n">
         <v>2.595688017639121e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>61</v>
+        <v>60.46223958333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>3380690.911712008</v>
+        <v>3756083.968956382</v>
       </c>
     </row>
     <row r="14">
@@ -6849,28 +6849,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2696.756924821122</v>
+        <v>3000.065433556655</v>
       </c>
       <c r="AB14" t="n">
-        <v>3689.821797059334</v>
+        <v>4104.821879738334</v>
       </c>
       <c r="AC14" t="n">
-        <v>3337.67038344527</v>
+        <v>3713.063440689644</v>
       </c>
       <c r="AD14" t="n">
-        <v>2696756.924821122</v>
+        <v>3000065.433556655</v>
       </c>
       <c r="AE14" t="n">
-        <v>3689821.797059334</v>
+        <v>4104821.879738335</v>
       </c>
       <c r="AF14" t="n">
         <v>2.609188391836928e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>61</v>
+        <v>60.15625</v>
       </c>
       <c r="AH14" t="n">
-        <v>3337670.383445269</v>
+        <v>3713063.440689644</v>
       </c>
     </row>
     <row r="15">
@@ -6955,28 +6955,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2652.981598899312</v>
+        <v>2956.35742744255</v>
       </c>
       <c r="AB15" t="n">
-        <v>3629.92646490203</v>
+        <v>4045.018657511872</v>
       </c>
       <c r="AC15" t="n">
-        <v>3283.491377725435</v>
+        <v>3658.967754058128</v>
       </c>
       <c r="AD15" t="n">
-        <v>2652981.598899312</v>
+        <v>2956357.42744255</v>
       </c>
       <c r="AE15" t="n">
-        <v>3629926.46490203</v>
+        <v>4045018.657511872</v>
       </c>
       <c r="AF15" t="n">
         <v>2.620277984927984e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>60</v>
+        <v>59.89583333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>3283491.377725435</v>
+        <v>3658967.754058128</v>
       </c>
     </row>
     <row r="16">
@@ -7061,28 +7061,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2620.675620166884</v>
+        <v>2924.051448710122</v>
       </c>
       <c r="AB16" t="n">
-        <v>3585.723999561126</v>
+        <v>4000.816192170968</v>
       </c>
       <c r="AC16" t="n">
-        <v>3243.507533638118</v>
+        <v>3618.983909970812</v>
       </c>
       <c r="AD16" t="n">
-        <v>2620675.620166884</v>
+        <v>2924051.448710122</v>
       </c>
       <c r="AE16" t="n">
-        <v>3585723.999561126</v>
+        <v>4000816.192170968</v>
       </c>
       <c r="AF16" t="n">
         <v>2.628956796912288e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>60</v>
+        <v>59.70052083333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>3243507.533638118</v>
+        <v>3618983.909970812</v>
       </c>
     </row>
     <row r="17">
@@ -7167,28 +7167,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2591.07738209325</v>
+        <v>2894.453210636488</v>
       </c>
       <c r="AB17" t="n">
-        <v>3545.226384446672</v>
+        <v>3960.318577056514</v>
       </c>
       <c r="AC17" t="n">
-        <v>3206.874954071429</v>
+        <v>3582.351330404123</v>
       </c>
       <c r="AD17" t="n">
-        <v>2591077.38209325</v>
+        <v>2894453.210636488</v>
       </c>
       <c r="AE17" t="n">
-        <v>3545226.384446672</v>
+        <v>3960318.577056514</v>
       </c>
       <c r="AF17" t="n">
         <v>2.637394530785918e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>60</v>
+        <v>59.51171875</v>
       </c>
       <c r="AH17" t="n">
-        <v>3206874.954071429</v>
+        <v>3582351.330404123</v>
       </c>
     </row>
     <row r="18">
@@ -7273,28 +7273,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2560.862446443761</v>
+        <v>2854.416599327727</v>
       </c>
       <c r="AB18" t="n">
-        <v>3503.884976502155</v>
+        <v>3905.538719173232</v>
       </c>
       <c r="AC18" t="n">
-        <v>3169.479112078108</v>
+        <v>3532.79958527321</v>
       </c>
       <c r="AD18" t="n">
-        <v>2560862.446443761</v>
+        <v>2854416.599327727</v>
       </c>
       <c r="AE18" t="n">
-        <v>3503884.976502155</v>
+        <v>3905538.719173232</v>
       </c>
       <c r="AF18" t="n">
         <v>2.643662561663471e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>60</v>
+        <v>59.36848958333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>3169479.112078108</v>
+        <v>3532799.585273209</v>
       </c>
     </row>
     <row r="19">
@@ -7379,28 +7379,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2543.636417843422</v>
+        <v>2837.190570727387</v>
       </c>
       <c r="AB19" t="n">
-        <v>3480.315564212423</v>
+        <v>3881.969306883499</v>
       </c>
       <c r="AC19" t="n">
-        <v>3148.159131417431</v>
+        <v>3511.479604612532</v>
       </c>
       <c r="AD19" t="n">
-        <v>2543636.417843422</v>
+        <v>2837190.570727387</v>
       </c>
       <c r="AE19" t="n">
-        <v>3480315.564212423</v>
+        <v>3881969.306883499</v>
       </c>
       <c r="AF19" t="n">
         <v>2.647760889544949e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>60</v>
+        <v>59.27734375</v>
       </c>
       <c r="AH19" t="n">
-        <v>3148159.131417431</v>
+        <v>3511479.604612532</v>
       </c>
     </row>
     <row r="20">
@@ -7485,28 +7485,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2534.218902691102</v>
+        <v>2827.773055575067</v>
       </c>
       <c r="AB20" t="n">
-        <v>3467.430104509572</v>
+        <v>3869.083847180648</v>
       </c>
       <c r="AC20" t="n">
-        <v>3136.503441903765</v>
+        <v>3499.823915098866</v>
       </c>
       <c r="AD20" t="n">
-        <v>2534218.902691102</v>
+        <v>2827773.055575067</v>
       </c>
       <c r="AE20" t="n">
-        <v>3467430.104509572</v>
+        <v>3869083.847180648</v>
       </c>
       <c r="AF20" t="n">
         <v>2.649930592541024e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>60</v>
+        <v>59.23177083333334</v>
       </c>
       <c r="AH20" t="n">
-        <v>3136503.441903765</v>
+        <v>3499823.915098866</v>
       </c>
     </row>
     <row r="21">
@@ -7591,28 +7591,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>2541.613347587517</v>
+        <v>2835.167500471482</v>
       </c>
       <c r="AB21" t="n">
-        <v>3477.547510236733</v>
+        <v>3879.201252907809</v>
       </c>
       <c r="AC21" t="n">
-        <v>3145.655256628193</v>
+        <v>3508.975729823293</v>
       </c>
       <c r="AD21" t="n">
-        <v>2541613.347587517</v>
+        <v>2835167.500471482</v>
       </c>
       <c r="AE21" t="n">
-        <v>3477547.510236733</v>
+        <v>3879201.252907809</v>
       </c>
       <c r="AF21" t="n">
         <v>2.6511359830944e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>60</v>
+        <v>59.20572916666666</v>
       </c>
       <c r="AH21" t="n">
-        <v>3145655.256628192</v>
+        <v>3508975.729823294</v>
       </c>
     </row>
     <row r="22">
@@ -7697,28 +7697,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>2550.372342462043</v>
+        <v>2843.926495346009</v>
       </c>
       <c r="AB22" t="n">
-        <v>3489.531953443643</v>
+        <v>3891.185696114718</v>
       </c>
       <c r="AC22" t="n">
-        <v>3156.495921395706</v>
+        <v>3519.816394590807</v>
       </c>
       <c r="AD22" t="n">
-        <v>2550372.342462043</v>
+        <v>2843926.495346009</v>
       </c>
       <c r="AE22" t="n">
-        <v>3489531.953443643</v>
+        <v>3891185.696114718</v>
       </c>
       <c r="AF22" t="n">
         <v>2.6511359830944e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>60</v>
+        <v>59.20572916666666</v>
       </c>
       <c r="AH22" t="n">
-        <v>3156495.921395706</v>
+        <v>3519816.394590807</v>
       </c>
     </row>
   </sheetData>
@@ -7994,28 +7994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6805.088036536334</v>
+        <v>7366.423225567482</v>
       </c>
       <c r="AB2" t="n">
-        <v>9311.021670885302</v>
+        <v>10079.06524087852</v>
       </c>
       <c r="AC2" t="n">
-        <v>8422.390830716648</v>
+        <v>9117.133400345609</v>
       </c>
       <c r="AD2" t="n">
-        <v>6805088.036536334</v>
+        <v>7366423.225567482</v>
       </c>
       <c r="AE2" t="n">
-        <v>9311021.670885302</v>
+        <v>10079065.24087852</v>
       </c>
       <c r="AF2" t="n">
         <v>1.537595975891141e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>112</v>
+        <v>111.6861979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>8422390.830716647</v>
+        <v>9117133.400345609</v>
       </c>
     </row>
     <row r="3">
@@ -8100,28 +8100,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3811.175428701286</v>
+        <v>4198.227578641564</v>
       </c>
       <c r="AB3" t="n">
-        <v>5214.618358742784</v>
+        <v>5744.200185826829</v>
       </c>
       <c r="AC3" t="n">
-        <v>4716.942501347009</v>
+        <v>5195.981782126894</v>
       </c>
       <c r="AD3" t="n">
-        <v>3811175.428701286</v>
+        <v>4198227.578641564</v>
       </c>
       <c r="AE3" t="n">
-        <v>5214618.358742784</v>
+        <v>5744200.185826829</v>
       </c>
       <c r="AF3" t="n">
         <v>2.21763070326245e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>78</v>
+        <v>77.44140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>4716942.501347009</v>
+        <v>5195981.782126894</v>
       </c>
     </row>
     <row r="4">
@@ -8206,28 +8206,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3216.445956509316</v>
+        <v>3564.877395075647</v>
       </c>
       <c r="AB4" t="n">
-        <v>4400.883257277129</v>
+        <v>4877.622523233798</v>
       </c>
       <c r="AC4" t="n">
-        <v>3980.869135880878</v>
+        <v>4412.109075402388</v>
       </c>
       <c r="AD4" t="n">
-        <v>3216445.956509316</v>
+        <v>3564877.395075647</v>
       </c>
       <c r="AE4" t="n">
-        <v>4400883.257277129</v>
+        <v>4877622.523233798</v>
       </c>
       <c r="AF4" t="n">
         <v>2.4708631851385e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>70</v>
+        <v>69.50520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3980869.135880878</v>
+        <v>4412109.075402388</v>
       </c>
     </row>
     <row r="5">
@@ -8312,28 +8312,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2948.613932286383</v>
+        <v>3277.684272552497</v>
       </c>
       <c r="AB5" t="n">
-        <v>4034.423665820307</v>
+        <v>4484.672222931245</v>
       </c>
       <c r="AC5" t="n">
-        <v>3649.383933503442</v>
+        <v>4056.661400251514</v>
       </c>
       <c r="AD5" t="n">
-        <v>2948613.932286383</v>
+        <v>3277684.272552497</v>
       </c>
       <c r="AE5" t="n">
-        <v>4034423.665820307</v>
+        <v>4484672.222931245</v>
       </c>
       <c r="AF5" t="n">
         <v>2.604074021958714e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>66</v>
+        <v>65.95052083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3649383.933503442</v>
+        <v>4056661.400251514</v>
       </c>
     </row>
     <row r="6">
@@ -8418,28 +8418,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2795.280971214022</v>
+        <v>3114.670762330029</v>
       </c>
       <c r="AB6" t="n">
-        <v>3824.626743908269</v>
+        <v>4261.629946596341</v>
       </c>
       <c r="AC6" t="n">
-        <v>3459.609735366868</v>
+        <v>3854.905965728221</v>
       </c>
       <c r="AD6" t="n">
-        <v>2795280.971214022</v>
+        <v>3114670.762330029</v>
       </c>
       <c r="AE6" t="n">
-        <v>3824626.743908269</v>
+        <v>4261629.946596341</v>
       </c>
       <c r="AF6" t="n">
         <v>2.685583227062567e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>64</v>
+        <v>63.95182291666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>3459609.735366868</v>
+        <v>3854905.965728221</v>
       </c>
     </row>
     <row r="7">
@@ -8524,28 +8524,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2689.700960446599</v>
+        <v>2999.444367831279</v>
       </c>
       <c r="AB7" t="n">
-        <v>3680.167515314933</v>
+        <v>4103.972110213388</v>
       </c>
       <c r="AC7" t="n">
-        <v>3328.937492800685</v>
+        <v>3712.294771975501</v>
       </c>
       <c r="AD7" t="n">
-        <v>2689700.960446599</v>
+        <v>2999444.367831279</v>
       </c>
       <c r="AE7" t="n">
-        <v>3680167.515314933</v>
+        <v>4103972.110213388</v>
       </c>
       <c r="AF7" t="n">
         <v>2.741769183978815e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>63</v>
+        <v>62.63671875</v>
       </c>
       <c r="AH7" t="n">
-        <v>3328937.492800685</v>
+        <v>3712294.771975501</v>
       </c>
     </row>
     <row r="8">
@@ -8630,28 +8630,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2609.173068257121</v>
+        <v>2918.88231022302</v>
       </c>
       <c r="AB8" t="n">
-        <v>3569.985700581412</v>
+        <v>3993.74354884662</v>
       </c>
       <c r="AC8" t="n">
-        <v>3229.271275824187</v>
+        <v>3612.586269798823</v>
       </c>
       <c r="AD8" t="n">
-        <v>2609173.068257121</v>
+        <v>2918882.31022302</v>
       </c>
       <c r="AE8" t="n">
-        <v>3569985.700581412</v>
+        <v>3993743.54884662</v>
       </c>
       <c r="AF8" t="n">
         <v>2.781600543107236e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>62</v>
+        <v>61.74479166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>3229271.275824187</v>
+        <v>3612586.269798823</v>
       </c>
     </row>
     <row r="9">
@@ -8736,28 +8736,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2546.372049788138</v>
+        <v>2846.367588215005</v>
       </c>
       <c r="AB9" t="n">
-        <v>3484.058576526747</v>
+        <v>3894.525707071495</v>
       </c>
       <c r="AC9" t="n">
-        <v>3151.544915889827</v>
+        <v>3522.837639589604</v>
       </c>
       <c r="AD9" t="n">
-        <v>2546372.049788138</v>
+        <v>2846367.588215005</v>
       </c>
       <c r="AE9" t="n">
-        <v>3484058.576526748</v>
+        <v>3894525.707071495</v>
       </c>
       <c r="AF9" t="n">
         <v>2.813782171012317e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>62</v>
+        <v>61.03515625</v>
       </c>
       <c r="AH9" t="n">
-        <v>3151544.915889827</v>
+        <v>3522837.639589604</v>
       </c>
     </row>
     <row r="10">
@@ -8842,28 +8842,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2481.817328311636</v>
+        <v>2781.778701319722</v>
       </c>
       <c r="AB10" t="n">
-        <v>3395.731958649279</v>
+        <v>3806.152342560779</v>
       </c>
       <c r="AC10" t="n">
-        <v>3071.648066455401</v>
+        <v>3442.898504954998</v>
       </c>
       <c r="AD10" t="n">
-        <v>2481817.328311636</v>
+        <v>2781778.701319722</v>
       </c>
       <c r="AE10" t="n">
-        <v>3395731.95864928</v>
+        <v>3806152.342560779</v>
       </c>
       <c r="AF10" t="n">
         <v>2.83936920303521e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>61</v>
+        <v>60.48828125</v>
       </c>
       <c r="AH10" t="n">
-        <v>3071648.066455401</v>
+        <v>3442898.504954998</v>
       </c>
     </row>
     <row r="11">
@@ -8948,28 +8948,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2427.859397995675</v>
+        <v>2727.820771003761</v>
       </c>
       <c r="AB11" t="n">
-        <v>3321.904337935096</v>
+        <v>3732.324721846596</v>
       </c>
       <c r="AC11" t="n">
-        <v>3004.866450244466</v>
+        <v>3376.116888744064</v>
       </c>
       <c r="AD11" t="n">
-        <v>2427859.397995675</v>
+        <v>2727820.771003761</v>
       </c>
       <c r="AE11" t="n">
-        <v>3321904.337935097</v>
+        <v>3732324.721846596</v>
       </c>
       <c r="AF11" t="n">
         <v>2.857570287670051e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>61</v>
+        <v>60.09765625</v>
       </c>
       <c r="AH11" t="n">
-        <v>3004866.450244466</v>
+        <v>3376116.888744064</v>
       </c>
     </row>
     <row r="12">
@@ -9054,28 +9054,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2376.599360686744</v>
+        <v>2676.628053502534</v>
       </c>
       <c r="AB12" t="n">
-        <v>3251.76809345577</v>
+        <v>3662.280587298111</v>
       </c>
       <c r="AC12" t="n">
-        <v>2941.423910501412</v>
+        <v>3312.757668089328</v>
       </c>
       <c r="AD12" t="n">
-        <v>2376599.360686744</v>
+        <v>2676628.053502534</v>
       </c>
       <c r="AE12" t="n">
-        <v>3251768.09345577</v>
+        <v>3662280.587298111</v>
       </c>
       <c r="AF12" t="n">
         <v>2.875771372304892e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>60</v>
+        <v>59.71354166666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>2941423.910501412</v>
+        <v>3312757.668089328</v>
       </c>
     </row>
     <row r="13">
@@ -9160,28 +9160,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2336.222812956598</v>
+        <v>2636.150020545904</v>
       </c>
       <c r="AB13" t="n">
-        <v>3196.523119563813</v>
+        <v>3606.896756842066</v>
       </c>
       <c r="AC13" t="n">
-        <v>2891.451439380897</v>
+        <v>3262.659592680315</v>
       </c>
       <c r="AD13" t="n">
-        <v>2336222.812956598</v>
+        <v>2636150.020545904</v>
       </c>
       <c r="AE13" t="n">
-        <v>3196523.119563813</v>
+        <v>3606896.756842066</v>
       </c>
       <c r="AF13" t="n">
         <v>2.888432996398694e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>60</v>
+        <v>59.45963541666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>2891451.439380897</v>
+        <v>3262659.592680315</v>
       </c>
     </row>
     <row r="14">
@@ -9266,28 +9266,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2320.548725975603</v>
+        <v>2610.863715252362</v>
       </c>
       <c r="AB14" t="n">
-        <v>3175.0771422645</v>
+        <v>3572.298918386382</v>
       </c>
       <c r="AC14" t="n">
-        <v>2872.052236055414</v>
+        <v>3231.363723368473</v>
       </c>
       <c r="AD14" t="n">
-        <v>2320548.725975603</v>
+        <v>2610863.715252362</v>
       </c>
       <c r="AE14" t="n">
-        <v>3175077.1422645</v>
+        <v>3572298.918386382</v>
       </c>
       <c r="AF14" t="n">
         <v>2.893181105433871e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>60</v>
+        <v>59.36197916666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>2872052.236055414</v>
+        <v>3231363.723368472</v>
       </c>
     </row>
     <row r="15">
@@ -9372,28 +9372,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2326.281422845087</v>
+        <v>2616.596412121846</v>
       </c>
       <c r="AB15" t="n">
-        <v>3182.920871030065</v>
+        <v>3580.142647151947</v>
       </c>
       <c r="AC15" t="n">
-        <v>2879.147370356334</v>
+        <v>3238.458857669394</v>
       </c>
       <c r="AD15" t="n">
-        <v>2326281.422845087</v>
+        <v>2616596.412121846</v>
       </c>
       <c r="AE15" t="n">
-        <v>3182920.871030065</v>
+        <v>3580142.647151947</v>
       </c>
       <c r="AF15" t="n">
         <v>2.892917321598583e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>60</v>
+        <v>59.36197916666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>2879147.370356334</v>
+        <v>3238458.857669394</v>
       </c>
     </row>
     <row r="16">
@@ -9478,28 +9478,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2334.394491375203</v>
+        <v>2624.709480651961</v>
       </c>
       <c r="AB16" t="n">
-        <v>3194.021529316292</v>
+        <v>3591.243305438174</v>
       </c>
       <c r="AC16" t="n">
-        <v>2889.188597395595</v>
+        <v>3248.500084708654</v>
       </c>
       <c r="AD16" t="n">
-        <v>2334394.491375202</v>
+        <v>2624709.480651961</v>
       </c>
       <c r="AE16" t="n">
-        <v>3194021.529316292</v>
+        <v>3591243.305438174</v>
       </c>
       <c r="AF16" t="n">
         <v>2.892917321598583e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>60</v>
+        <v>59.36197916666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>2889188.597395595</v>
+        <v>3248500.084708654</v>
       </c>
     </row>
   </sheetData>
@@ -9775,28 +9775,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2904.010075865911</v>
+        <v>3278.093694809706</v>
       </c>
       <c r="AB2" t="n">
-        <v>3973.394701682548</v>
+        <v>4485.232412525995</v>
       </c>
       <c r="AC2" t="n">
-        <v>3594.179488048305</v>
+        <v>4057.168126137572</v>
       </c>
       <c r="AD2" t="n">
-        <v>2904010.075865911</v>
+        <v>3278093.694809706</v>
       </c>
       <c r="AE2" t="n">
-        <v>3973394.701682548</v>
+        <v>4485232.412525995</v>
       </c>
       <c r="AF2" t="n">
         <v>3.058881359793904e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>79</v>
+        <v>78.36588541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3594179.488048305</v>
+        <v>4057168.126137572</v>
       </c>
     </row>
     <row r="3">
@@ -9881,28 +9881,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2145.72245209188</v>
+        <v>2463.740500405023</v>
       </c>
       <c r="AB3" t="n">
-        <v>2935.872121545745</v>
+        <v>3370.998445214087</v>
       </c>
       <c r="AC3" t="n">
-        <v>2655.676606787821</v>
+        <v>3049.27508482876</v>
       </c>
       <c r="AD3" t="n">
-        <v>2145722.45209188</v>
+        <v>2463740.500405023</v>
       </c>
       <c r="AE3" t="n">
-        <v>2935872.121545746</v>
+        <v>3370998.445214087</v>
       </c>
       <c r="AF3" t="n">
         <v>3.655709318896686e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>66</v>
+        <v>65.57291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2655676.606787821</v>
+        <v>3049275.08482876</v>
       </c>
     </row>
     <row r="4">
@@ -9987,28 +9987,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1917.989980224851</v>
+        <v>2207.942594348672</v>
       </c>
       <c r="AB4" t="n">
-        <v>2624.278506689689</v>
+        <v>3021.004465140608</v>
       </c>
       <c r="AC4" t="n">
-        <v>2373.821049209242</v>
+        <v>2732.684038993871</v>
       </c>
       <c r="AD4" t="n">
-        <v>1917989.980224852</v>
+        <v>2207942.594348672</v>
       </c>
       <c r="AE4" t="n">
-        <v>2624278.506689689</v>
+        <v>3021004.465140608</v>
       </c>
       <c r="AF4" t="n">
         <v>3.864838424862375e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>63</v>
+        <v>62.02473958333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2373821.049209242</v>
+        <v>2732684.038993871</v>
       </c>
     </row>
     <row r="5">
@@ -10093,28 +10093,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1817.282696720382</v>
+        <v>2116.555616135288</v>
       </c>
       <c r="AB5" t="n">
-        <v>2486.48635850709</v>
+        <v>2895.964769839949</v>
       </c>
       <c r="AC5" t="n">
-        <v>2249.179590256695</v>
+        <v>2619.577956718505</v>
       </c>
       <c r="AD5" t="n">
-        <v>1817282.696720382</v>
+        <v>2116555.616135288</v>
       </c>
       <c r="AE5" t="n">
-        <v>2486486.35850709</v>
+        <v>2895964.769839949</v>
       </c>
       <c r="AF5" t="n">
         <v>3.939211804096651e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>61</v>
+        <v>60.84635416666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2249179.590256695</v>
+        <v>2619577.956718505</v>
       </c>
     </row>
     <row r="6">
@@ -10199,28 +10199,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1822.491808267899</v>
+        <v>2121.764727682806</v>
       </c>
       <c r="AB6" t="n">
-        <v>2493.613694736185</v>
+        <v>2903.092106069044</v>
       </c>
       <c r="AC6" t="n">
-        <v>2255.626703519365</v>
+        <v>2626.025069981175</v>
       </c>
       <c r="AD6" t="n">
-        <v>1822491.808267899</v>
+        <v>2121764.727682806</v>
       </c>
       <c r="AE6" t="n">
-        <v>2493613.694736185</v>
+        <v>2903092.106069044</v>
       </c>
       <c r="AF6" t="n">
         <v>3.942893654553793e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>61</v>
+        <v>60.79427083333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2255626.703519365</v>
+        <v>2626025.069981175</v>
       </c>
     </row>
   </sheetData>
@@ -10496,28 +10496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3954.240825179403</v>
+        <v>4390.30238941431</v>
       </c>
       <c r="AB2" t="n">
-        <v>5410.366745803998</v>
+        <v>6007.005415668717</v>
       </c>
       <c r="AC2" t="n">
-        <v>4894.00893708168</v>
+        <v>5433.70524968212</v>
       </c>
       <c r="AD2" t="n">
-        <v>3954240.825179403</v>
+        <v>4390302.38941431</v>
       </c>
       <c r="AE2" t="n">
-        <v>5410366.745803998</v>
+        <v>6007005.415668718</v>
       </c>
       <c r="AF2" t="n">
         <v>2.359474942038136e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>88</v>
+        <v>87.98177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4894008.93708168</v>
+        <v>5433705.24968212</v>
       </c>
     </row>
     <row r="3">
@@ -10602,28 +10602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2691.382944346919</v>
+        <v>3032.585652908112</v>
       </c>
       <c r="AB3" t="n">
-        <v>3682.468879891243</v>
+        <v>4149.317478545823</v>
       </c>
       <c r="AC3" t="n">
-        <v>3331.019218371817</v>
+        <v>3753.312441996909</v>
       </c>
       <c r="AD3" t="n">
-        <v>2691382.944346919</v>
+        <v>3032585.652908112</v>
       </c>
       <c r="AE3" t="n">
-        <v>3682468.879891243</v>
+        <v>4149317.478545823</v>
       </c>
       <c r="AF3" t="n">
         <v>2.994620088597591e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>70</v>
+        <v>69.31640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>3331019.218371817</v>
+        <v>3753312.44199691</v>
       </c>
     </row>
     <row r="4">
@@ -10708,28 +10708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2373.75092126331</v>
+        <v>2686.641570084333</v>
       </c>
       <c r="AB4" t="n">
-        <v>3247.870732972349</v>
+        <v>3675.981522450503</v>
       </c>
       <c r="AC4" t="n">
-        <v>2937.898508632549</v>
+        <v>3325.151005220158</v>
       </c>
       <c r="AD4" t="n">
-        <v>2373750.92126331</v>
+        <v>2686641.570084332</v>
       </c>
       <c r="AE4" t="n">
-        <v>3247870.73297235</v>
+        <v>3675981.522450503</v>
       </c>
       <c r="AF4" t="n">
         <v>3.217813664195793e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>65</v>
+        <v>64.50520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2937898.508632549</v>
+        <v>3325151.005220158</v>
       </c>
     </row>
     <row r="5">
@@ -10814,28 +10814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2210.112701917638</v>
+        <v>2513.419295383697</v>
       </c>
       <c r="AB5" t="n">
-        <v>3023.973702054857</v>
+        <v>3438.971164177666</v>
       </c>
       <c r="AC5" t="n">
-        <v>2735.369896104374</v>
+        <v>3110.760582894764</v>
       </c>
       <c r="AD5" t="n">
-        <v>2210112.701917638</v>
+        <v>2513419.295383697</v>
       </c>
       <c r="AE5" t="n">
-        <v>3023973.702054857</v>
+        <v>3438971.164177666</v>
       </c>
       <c r="AF5" t="n">
         <v>3.3357874112977e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>63</v>
+        <v>62.2265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>2735369.896104374</v>
+        <v>3110760.582894763</v>
       </c>
     </row>
     <row r="6">
@@ -10920,28 +10920,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2091.324604445157</v>
+        <v>2394.664352300141</v>
       </c>
       <c r="AB6" t="n">
-        <v>2861.442586531835</v>
+        <v>3276.485411952405</v>
       </c>
       <c r="AC6" t="n">
-        <v>2588.350522133129</v>
+        <v>2963.782242811701</v>
       </c>
       <c r="AD6" t="n">
-        <v>2091324.604445157</v>
+        <v>2394664.352300141</v>
       </c>
       <c r="AE6" t="n">
-        <v>2861442.586531835</v>
+        <v>3276485.411952405</v>
       </c>
       <c r="AF6" t="n">
         <v>3.406890507523984e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>61</v>
+        <v>60.93098958333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2588350.522133129</v>
+        <v>2963782.242811701</v>
       </c>
     </row>
     <row r="7">
@@ -11026,28 +11026,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2015.93685631402</v>
+        <v>2309.760879651602</v>
       </c>
       <c r="AB7" t="n">
-        <v>2758.293743666094</v>
+        <v>3160.31673499781</v>
       </c>
       <c r="AC7" t="n">
-        <v>2495.046060060185</v>
+        <v>2858.700541341895</v>
       </c>
       <c r="AD7" t="n">
-        <v>2015936.85631402</v>
+        <v>2309760.879651602</v>
       </c>
       <c r="AE7" t="n">
-        <v>2758293.743666094</v>
+        <v>3160316.73499781</v>
       </c>
       <c r="AF7" t="n">
         <v>3.452804614504186e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>61</v>
+        <v>60.1171875</v>
       </c>
       <c r="AH7" t="n">
-        <v>2495046.060060185</v>
+        <v>2858700.541341895</v>
       </c>
     </row>
     <row r="8">
@@ -11132,28 +11132,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1991.66999013705</v>
+        <v>2285.561333282337</v>
       </c>
       <c r="AB8" t="n">
-        <v>2725.090746784186</v>
+        <v>3127.205848046742</v>
       </c>
       <c r="AC8" t="n">
-        <v>2465.011910599987</v>
+        <v>2828.749710970016</v>
       </c>
       <c r="AD8" t="n">
-        <v>1991669.99013705</v>
+        <v>2285561.333282337</v>
       </c>
       <c r="AE8" t="n">
-        <v>2725090.746784186</v>
+        <v>3127205.848046742</v>
       </c>
       <c r="AF8" t="n">
         <v>3.462688901423535e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>60</v>
+        <v>59.94791666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>2465011.910599987</v>
+        <v>2828749.710970016</v>
       </c>
     </row>
     <row r="9">
@@ -11238,28 +11238,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2003.133633284484</v>
+        <v>2297.024976429771</v>
       </c>
       <c r="AB9" t="n">
-        <v>2740.775809078748</v>
+        <v>3142.890910341305</v>
       </c>
       <c r="AC9" t="n">
-        <v>2479.200012563279</v>
+        <v>2842.937812933309</v>
       </c>
       <c r="AD9" t="n">
-        <v>2003133.633284485</v>
+        <v>2297024.976429771</v>
       </c>
       <c r="AE9" t="n">
-        <v>2740775.809078748</v>
+        <v>3142890.910341305</v>
       </c>
       <c r="AF9" t="n">
         <v>3.461413509562973e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>60</v>
+        <v>59.97395833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>2479200.012563279</v>
+        <v>2842937.812933309</v>
       </c>
     </row>
   </sheetData>
@@ -11535,28 +11535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2251.573221266135</v>
+        <v>2593.733568694424</v>
       </c>
       <c r="AB2" t="n">
-        <v>3080.701813736494</v>
+        <v>3548.86069613708</v>
       </c>
       <c r="AC2" t="n">
-        <v>2786.683956425519</v>
+        <v>3210.162412154893</v>
       </c>
       <c r="AD2" t="n">
-        <v>2251573.221266135</v>
+        <v>2593733.568694424</v>
       </c>
       <c r="AE2" t="n">
-        <v>3080701.813736494</v>
+        <v>3548860.69613708</v>
       </c>
       <c r="AF2" t="n">
         <v>3.803785842672973e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>73</v>
+        <v>72.18098958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2786683.956425519</v>
+        <v>3210162.412154893</v>
       </c>
     </row>
     <row r="3">
@@ -11641,28 +11641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1741.898790261977</v>
+        <v>2047.087319314481</v>
       </c>
       <c r="AB3" t="n">
-        <v>2383.342771987463</v>
+        <v>2800.915181404762</v>
       </c>
       <c r="AC3" t="n">
-        <v>2155.879882871568</v>
+        <v>2533.599767600638</v>
       </c>
       <c r="AD3" t="n">
-        <v>1741898.790261977</v>
+        <v>2047087.319314481</v>
       </c>
       <c r="AE3" t="n">
-        <v>2383342.771987463</v>
+        <v>2800915.181404762</v>
       </c>
       <c r="AF3" t="n">
         <v>4.362124252395702e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>63</v>
+        <v>62.93619791666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2155879.882871569</v>
+        <v>2533599.767600638</v>
       </c>
     </row>
     <row r="4">
@@ -11747,28 +11747,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1684.226765078886</v>
+        <v>1980.198216358994</v>
       </c>
       <c r="AB4" t="n">
-        <v>2304.433362821775</v>
+        <v>2709.394559802108</v>
       </c>
       <c r="AC4" t="n">
-        <v>2084.501476966602</v>
+        <v>2450.813745673742</v>
       </c>
       <c r="AD4" t="n">
-        <v>1684226.765078885</v>
+        <v>1980198.216358994</v>
       </c>
       <c r="AE4" t="n">
-        <v>2304433.362821775</v>
+        <v>2709394.559802108</v>
       </c>
       <c r="AF4" t="n">
         <v>4.429597171999657e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>62</v>
+        <v>61.97916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2084501.476966602</v>
+        <v>2450813.745673742</v>
       </c>
     </row>
     <row r="5">
@@ -11853,28 +11853,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1693.184810150348</v>
+        <v>1989.156261430456</v>
       </c>
       <c r="AB5" t="n">
-        <v>2316.690155289607</v>
+        <v>2721.65135226994</v>
       </c>
       <c r="AC5" t="n">
-        <v>2095.58849836382</v>
+        <v>2461.90076707096</v>
       </c>
       <c r="AD5" t="n">
-        <v>1693184.810150348</v>
+        <v>1989156.261430456</v>
       </c>
       <c r="AE5" t="n">
-        <v>2316690.155289607</v>
+        <v>2721651.35226994</v>
       </c>
       <c r="AF5" t="n">
         <v>4.432970817979855e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>62</v>
+        <v>61.93359375</v>
       </c>
       <c r="AH5" t="n">
-        <v>2095588.49836382</v>
+        <v>2461900.76707096</v>
       </c>
     </row>
   </sheetData>
@@ -12150,28 +12150,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7430.740647119335</v>
+        <v>8013.072387566115</v>
       </c>
       <c r="AB2" t="n">
-        <v>10167.06717453015</v>
+        <v>10963.83915247271</v>
       </c>
       <c r="AC2" t="n">
-        <v>9196.736552961011</v>
+        <v>9917.465731605198</v>
       </c>
       <c r="AD2" t="n">
-        <v>7430740.647119335</v>
+        <v>8013072.387566115</v>
       </c>
       <c r="AE2" t="n">
-        <v>10167067.17453015</v>
+        <v>10963839.15247271</v>
       </c>
       <c r="AF2" t="n">
         <v>1.438930223434986e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>117</v>
+        <v>116.4583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>9196736.55296101</v>
+        <v>9917465.731605198</v>
       </c>
     </row>
     <row r="3">
@@ -12256,28 +12256,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4010.121680185373</v>
+        <v>4408.085260580929</v>
       </c>
       <c r="AB3" t="n">
-        <v>5486.825396912502</v>
+        <v>6031.336724523794</v>
       </c>
       <c r="AC3" t="n">
-        <v>4963.170481838776</v>
+        <v>5455.714412569274</v>
       </c>
       <c r="AD3" t="n">
-        <v>4010121.680185373</v>
+        <v>4408085.260580929</v>
       </c>
       <c r="AE3" t="n">
-        <v>5486825.396912502</v>
+        <v>6031336.724523794</v>
       </c>
       <c r="AF3" t="n">
         <v>2.123387372650303e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>79</v>
+        <v>78.91927083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4963170.481838776</v>
+        <v>5455714.412569274</v>
       </c>
     </row>
     <row r="4">
@@ -12362,28 +12362,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3362.65490476233</v>
+        <v>3712.040687274829</v>
       </c>
       <c r="AB4" t="n">
-        <v>4600.932790560475</v>
+        <v>5078.977832006974</v>
       </c>
       <c r="AC4" t="n">
-        <v>4161.826222478937</v>
+        <v>4594.247316110193</v>
       </c>
       <c r="AD4" t="n">
-        <v>3362654.90476233</v>
+        <v>3712040.687274829</v>
       </c>
       <c r="AE4" t="n">
-        <v>4600932.790560475</v>
+        <v>5078977.832006973</v>
       </c>
       <c r="AF4" t="n">
         <v>2.380026627169924e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>71</v>
+        <v>70.41666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>4161826.222478937</v>
+        <v>4594247.316110194</v>
       </c>
     </row>
     <row r="5">
@@ -12468,28 +12468,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3074.02200146278</v>
+        <v>3404.09141180411</v>
       </c>
       <c r="AB5" t="n">
-        <v>4206.012518681004</v>
+        <v>4657.628047544712</v>
       </c>
       <c r="AC5" t="n">
-        <v>3804.596587073575</v>
+        <v>4213.11056370889</v>
       </c>
       <c r="AD5" t="n">
-        <v>3074022.00146278</v>
+        <v>3404091.41180411</v>
       </c>
       <c r="AE5" t="n">
-        <v>4206012.518681004</v>
+        <v>4657628.047544712</v>
       </c>
       <c r="AF5" t="n">
         <v>2.516197304843825e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>67</v>
+        <v>66.60807291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3804596.587073575</v>
+        <v>4213110.56370889</v>
       </c>
     </row>
     <row r="6">
@@ -12574,28 +12574,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2910.913748411087</v>
+        <v>3231.172744827104</v>
       </c>
       <c r="AB6" t="n">
-        <v>3982.840611027396</v>
+        <v>4421.033098753575</v>
       </c>
       <c r="AC6" t="n">
-        <v>3602.723893062697</v>
+        <v>3999.095904767292</v>
       </c>
       <c r="AD6" t="n">
-        <v>2910913.748411087</v>
+        <v>3231172.744827104</v>
       </c>
       <c r="AE6" t="n">
-        <v>3982840.611027396</v>
+        <v>4421033.098753575</v>
       </c>
       <c r="AF6" t="n">
         <v>2.599341215786491e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>65</v>
+        <v>64.47265625</v>
       </c>
       <c r="AH6" t="n">
-        <v>3602723.893062697</v>
+        <v>3999095.904767292</v>
       </c>
     </row>
     <row r="7">
@@ -12680,28 +12680,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2801.351235170508</v>
+        <v>3111.935468306479</v>
       </c>
       <c r="AB7" t="n">
-        <v>3832.932346854678</v>
+        <v>4257.887396640665</v>
       </c>
       <c r="AC7" t="n">
-        <v>3467.122663225058</v>
+        <v>3851.520599487613</v>
       </c>
       <c r="AD7" t="n">
-        <v>2801351.235170508</v>
+        <v>3111935.468306479</v>
       </c>
       <c r="AE7" t="n">
-        <v>3832932.346854678</v>
+        <v>4257887.396640666</v>
       </c>
       <c r="AF7" t="n">
         <v>2.656486566341512e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>64</v>
+        <v>63.0859375</v>
       </c>
       <c r="AH7" t="n">
-        <v>3467122.663225058</v>
+        <v>3851520.599487613</v>
       </c>
     </row>
     <row r="8">
@@ -12786,28 +12786,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2716.457502697199</v>
+        <v>3027.007570414389</v>
       </c>
       <c r="AB8" t="n">
-        <v>3716.776996837539</v>
+        <v>4141.685299990279</v>
       </c>
       <c r="AC8" t="n">
-        <v>3362.053016788502</v>
+        <v>3746.408667850877</v>
       </c>
       <c r="AD8" t="n">
-        <v>2716457.502697199</v>
+        <v>3027007.570414389</v>
       </c>
       <c r="AE8" t="n">
-        <v>3716776.996837539</v>
+        <v>4141685.299990279</v>
       </c>
       <c r="AF8" t="n">
         <v>2.698959462024298e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>63</v>
+        <v>62.08984375</v>
       </c>
       <c r="AH8" t="n">
-        <v>3362053.016788502</v>
+        <v>3746408.667850877</v>
       </c>
     </row>
     <row r="9">
@@ -12892,28 +12892,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2647.350151326289</v>
+        <v>2957.866053624698</v>
       </c>
       <c r="AB9" t="n">
-        <v>3622.221269890686</v>
+        <v>4047.082826410179</v>
       </c>
       <c r="AC9" t="n">
-        <v>3276.521555711665</v>
+        <v>3660.834921573859</v>
       </c>
       <c r="AD9" t="n">
-        <v>2647350.151326288</v>
+        <v>2957866.053624698</v>
       </c>
       <c r="AE9" t="n">
-        <v>3622221.269890686</v>
+        <v>4047082.826410179</v>
       </c>
       <c r="AF9" t="n">
         <v>2.728819194746741e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>62</v>
+        <v>61.41276041666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>3276521.555711665</v>
+        <v>3660834.921573859</v>
       </c>
     </row>
     <row r="10">
@@ -12998,28 +12998,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2582.254087570213</v>
+        <v>2892.837309676327</v>
       </c>
       <c r="AB10" t="n">
-        <v>3533.15396362397</v>
+        <v>3958.107630074303</v>
       </c>
       <c r="AC10" t="n">
-        <v>3195.954708148297</v>
+        <v>3580.35139309881</v>
       </c>
       <c r="AD10" t="n">
-        <v>2582254.087570213</v>
+        <v>2892837.309676327</v>
       </c>
       <c r="AE10" t="n">
-        <v>3533153.963623969</v>
+        <v>3958107.630074303</v>
       </c>
       <c r="AF10" t="n">
         <v>2.754817755134386e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>61</v>
+        <v>60.83333333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>3195954.708148296</v>
+        <v>3580351.39309881</v>
       </c>
     </row>
     <row r="11">
@@ -13104,28 +13104,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2535.973869195759</v>
+        <v>2836.815008214123</v>
       </c>
       <c r="AB11" t="n">
-        <v>3469.831327104901</v>
+        <v>3881.455445684201</v>
       </c>
       <c r="AC11" t="n">
-        <v>3138.675495184732</v>
+        <v>3511.014785604887</v>
       </c>
       <c r="AD11" t="n">
-        <v>2535973.869195759</v>
+        <v>2836815.008214123</v>
       </c>
       <c r="AE11" t="n">
-        <v>3469831.327104901</v>
+        <v>3881455.445684201</v>
       </c>
       <c r="AF11" t="n">
         <v>2.776697731698245e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>61</v>
+        <v>60.35807291666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>3138675.495184733</v>
+        <v>3511014.785604887</v>
       </c>
     </row>
     <row r="12">
@@ -13210,28 +13210,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2491.232941892536</v>
+        <v>2782.433483049635</v>
       </c>
       <c r="AB12" t="n">
-        <v>3408.614816538222</v>
+        <v>3807.048243810577</v>
       </c>
       <c r="AC12" t="n">
-        <v>3083.301402468627</v>
+        <v>3443.708902646921</v>
       </c>
       <c r="AD12" t="n">
-        <v>2491232.941892536</v>
+        <v>2782433.483049634</v>
       </c>
       <c r="AE12" t="n">
-        <v>3408614.816538222</v>
+        <v>3807048.243810577</v>
       </c>
       <c r="AF12" t="n">
         <v>2.791885009548453e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>61</v>
+        <v>60.02604166666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>3083301.402468627</v>
+        <v>3443708.902646921</v>
       </c>
     </row>
     <row r="13">
@@ -13316,28 +13316,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2437.308644614327</v>
+        <v>2738.217103440395</v>
       </c>
       <c r="AB13" t="n">
-        <v>3334.833214030076</v>
+        <v>3746.549442540217</v>
       </c>
       <c r="AC13" t="n">
-        <v>3016.561412550731</v>
+        <v>3388.984022059205</v>
       </c>
       <c r="AD13" t="n">
-        <v>2437308.644614327</v>
+        <v>2738217.103440396</v>
       </c>
       <c r="AE13" t="n">
-        <v>3334833.214030076</v>
+        <v>3746549.442540217</v>
       </c>
       <c r="AF13" t="n">
         <v>2.805785229953729e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>60</v>
+        <v>59.7265625</v>
       </c>
       <c r="AH13" t="n">
-        <v>3016561.412550732</v>
+        <v>3388984.022059205</v>
       </c>
     </row>
     <row r="14">
@@ -13422,28 +13422,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2396.529243080193</v>
+        <v>2697.336216679776</v>
       </c>
       <c r="AB14" t="n">
-        <v>3279.037037790846</v>
+        <v>3690.614409736898</v>
       </c>
       <c r="AC14" t="n">
-        <v>2966.09034506135</v>
+        <v>3338.387350281326</v>
       </c>
       <c r="AD14" t="n">
-        <v>2396529.243080193</v>
+        <v>2697336.216679776</v>
       </c>
       <c r="AE14" t="n">
-        <v>3279037.037790846</v>
+        <v>3690614.409736898</v>
       </c>
       <c r="AF14" t="n">
         <v>2.819685450359004e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>60</v>
+        <v>59.43359375</v>
       </c>
       <c r="AH14" t="n">
-        <v>2966090.345061351</v>
+        <v>3338387.350281326</v>
       </c>
     </row>
     <row r="15">
@@ -13528,28 +13528,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2378.412236715247</v>
+        <v>2669.578612453565</v>
       </c>
       <c r="AB15" t="n">
-        <v>3254.248550416415</v>
+        <v>3652.635231055522</v>
       </c>
       <c r="AC15" t="n">
-        <v>2943.667636131076</v>
+        <v>3304.03285110919</v>
       </c>
       <c r="AD15" t="n">
-        <v>2378412.236715247</v>
+        <v>2669578.612453565</v>
       </c>
       <c r="AE15" t="n">
-        <v>3254248.550416415</v>
+        <v>3652635.231055522</v>
       </c>
       <c r="AF15" t="n">
         <v>2.824061445671776e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>60</v>
+        <v>59.34244791666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>2943667.636131076</v>
+        <v>3304032.85110919</v>
       </c>
     </row>
     <row r="16">
@@ -13634,28 +13634,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2379.025608488155</v>
+        <v>2670.191984226473</v>
       </c>
       <c r="AB16" t="n">
-        <v>3255.08779273616</v>
+        <v>3653.474473375267</v>
       </c>
       <c r="AC16" t="n">
-        <v>2944.426782341708</v>
+        <v>3304.791997319822</v>
       </c>
       <c r="AD16" t="n">
-        <v>2379025.608488155</v>
+        <v>2670191.984226473</v>
       </c>
       <c r="AE16" t="n">
-        <v>3255087.79273616</v>
+        <v>3653474.473375267</v>
       </c>
       <c r="AF16" t="n">
         <v>2.825605914605695e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>60</v>
+        <v>59.30989583333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>2944426.782341708</v>
+        <v>3304791.997319822</v>
       </c>
     </row>
     <row r="17">
@@ -13740,28 +13740,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2385.616708316303</v>
+        <v>2676.783084054622</v>
       </c>
       <c r="AB17" t="n">
-        <v>3264.106026299835</v>
+        <v>3662.492706938942</v>
       </c>
       <c r="AC17" t="n">
-        <v>2952.584328351236</v>
+        <v>3312.94954332935</v>
       </c>
       <c r="AD17" t="n">
-        <v>2385616.708316303</v>
+        <v>2676783.084054622</v>
       </c>
       <c r="AE17" t="n">
-        <v>3264106.026299835</v>
+        <v>3662492.706938942</v>
       </c>
       <c r="AF17" t="n">
         <v>2.825863326094682e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>60</v>
+        <v>59.30338541666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>2952584.328351236</v>
+        <v>3312949.543329351</v>
       </c>
     </row>
     <row r="18">
@@ -13846,28 +13846,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2393.895147746819</v>
+        <v>2685.061523485138</v>
       </c>
       <c r="AB18" t="n">
-        <v>3275.43295234764</v>
+        <v>3673.819632986748</v>
       </c>
       <c r="AC18" t="n">
-        <v>2962.830228474479</v>
+        <v>3323.195443452593</v>
       </c>
       <c r="AD18" t="n">
-        <v>2393895.14774682</v>
+        <v>2685061.523485138</v>
       </c>
       <c r="AE18" t="n">
-        <v>3275432.95234764</v>
+        <v>3673819.632986748</v>
       </c>
       <c r="AF18" t="n">
         <v>2.825863326094682e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>60</v>
+        <v>59.30338541666666</v>
       </c>
       <c r="AH18" t="n">
-        <v>2962830.228474479</v>
+        <v>3323195.443452593</v>
       </c>
     </row>
   </sheetData>
@@ -14143,28 +14143,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1910.378210865455</v>
+        <v>2241.098375681741</v>
       </c>
       <c r="AB2" t="n">
-        <v>2613.863748044598</v>
+        <v>3066.369667890353</v>
       </c>
       <c r="AC2" t="n">
-        <v>2364.400260512033</v>
+        <v>2773.719650463641</v>
       </c>
       <c r="AD2" t="n">
-        <v>1910378.210865455</v>
+        <v>2241098.375681741</v>
       </c>
       <c r="AE2" t="n">
-        <v>2613863.748044598</v>
+        <v>3066369.667890354</v>
       </c>
       <c r="AF2" t="n">
         <v>4.357685643277169e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>69</v>
+        <v>68.93880208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2364400.260512033</v>
+        <v>2773719.650463641</v>
       </c>
     </row>
     <row r="3">
@@ -14249,28 +14249,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1615.991572060242</v>
+        <v>1909.954674453869</v>
       </c>
       <c r="AB3" t="n">
-        <v>2211.070961409409</v>
+        <v>2613.284246841159</v>
       </c>
       <c r="AC3" t="n">
-        <v>2000.049452110079</v>
+        <v>2363.876066090114</v>
       </c>
       <c r="AD3" t="n">
-        <v>1615991.572060242</v>
+        <v>1909954.674453869</v>
       </c>
       <c r="AE3" t="n">
-        <v>2211070.961409409</v>
+        <v>2613284.246841159</v>
       </c>
       <c r="AF3" t="n">
         <v>4.766045638438148e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>64</v>
+        <v>63.03385416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2000049.452110079</v>
+        <v>2363876.066090114</v>
       </c>
     </row>
     <row r="4">
@@ -14355,28 +14355,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1626.209432730957</v>
+        <v>1920.172535124583</v>
       </c>
       <c r="AB4" t="n">
-        <v>2225.051489159279</v>
+        <v>2627.264774591029</v>
       </c>
       <c r="AC4" t="n">
-        <v>2012.695697913296</v>
+        <v>2376.522311893331</v>
       </c>
       <c r="AD4" t="n">
-        <v>1626209.432730957</v>
+        <v>1920172.535124583</v>
       </c>
       <c r="AE4" t="n">
-        <v>2225051.48915928</v>
+        <v>2627264.774591029</v>
       </c>
       <c r="AF4" t="n">
         <v>4.767891333331532e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>64</v>
+        <v>63.0078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2012695.697913296</v>
+        <v>2376522.311893331</v>
       </c>
     </row>
   </sheetData>
@@ -14652,28 +14652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5222.052870265663</v>
+        <v>5710.961006972567</v>
       </c>
       <c r="AB2" t="n">
-        <v>7145.043117811068</v>
+        <v>7813.988799558214</v>
       </c>
       <c r="AC2" t="n">
-        <v>6463.130230777909</v>
+        <v>7068.232675530242</v>
       </c>
       <c r="AD2" t="n">
-        <v>5222052.870265663</v>
+        <v>5710961.006972567</v>
       </c>
       <c r="AE2" t="n">
-        <v>7145043.117811069</v>
+        <v>7813988.799558214</v>
       </c>
       <c r="AF2" t="n">
         <v>1.887332593156092e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>99</v>
+        <v>98.9453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>6463130.230777909</v>
+        <v>7068232.675530242</v>
       </c>
     </row>
     <row r="3">
@@ -14758,28 +14758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3239.747442178284</v>
+        <v>3603.938489890773</v>
       </c>
       <c r="AB3" t="n">
-        <v>4432.765377958408</v>
+        <v>4931.06763641374</v>
       </c>
       <c r="AC3" t="n">
-        <v>4009.708471711173</v>
+        <v>4460.45346199112</v>
       </c>
       <c r="AD3" t="n">
-        <v>3239747.442178284</v>
+        <v>3603938.489890773</v>
       </c>
       <c r="AE3" t="n">
-        <v>4432765.377958408</v>
+        <v>4931067.63641374</v>
       </c>
       <c r="AF3" t="n">
         <v>2.548759486745446e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>74</v>
+        <v>73.26822916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>4009708.471711173</v>
+        <v>4460453.46199112</v>
       </c>
     </row>
     <row r="4">
@@ -14864,28 +14864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2790.398731948284</v>
+        <v>3125.891768117698</v>
       </c>
       <c r="AB4" t="n">
-        <v>3817.946648755689</v>
+        <v>4276.983021750869</v>
       </c>
       <c r="AC4" t="n">
-        <v>3453.567179120079</v>
+        <v>3868.793764938177</v>
       </c>
       <c r="AD4" t="n">
-        <v>2790398.731948284</v>
+        <v>3125891.768117698</v>
       </c>
       <c r="AE4" t="n">
-        <v>3817946.648755689</v>
+        <v>4276983.021750869</v>
       </c>
       <c r="AF4" t="n">
         <v>2.789982391129074e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>67</v>
+        <v>66.93359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>3453567.179120079</v>
+        <v>3868793.764938177</v>
       </c>
     </row>
     <row r="5">
@@ -14970,28 +14970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2593.275461609402</v>
+        <v>2909.558455822706</v>
       </c>
       <c r="AB5" t="n">
-        <v>3548.233893813094</v>
+        <v>3980.986239916685</v>
       </c>
       <c r="AC5" t="n">
-        <v>3209.595430964986</v>
+        <v>3601.046500528166</v>
       </c>
       <c r="AD5" t="n">
-        <v>2593275.461609402</v>
+        <v>2909558.455822706</v>
       </c>
       <c r="AE5" t="n">
-        <v>3548233.893813094</v>
+        <v>3980986.239916685</v>
       </c>
       <c r="AF5" t="n">
         <v>2.913892372928987e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>65</v>
+        <v>64.08854166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3209595.430964986</v>
+        <v>3601046.500528166</v>
       </c>
     </row>
     <row r="6">
@@ -15076,28 +15076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2460.89409278636</v>
+        <v>2767.588643216071</v>
       </c>
       <c r="AB6" t="n">
-        <v>3367.103864735591</v>
+        <v>3786.736879042183</v>
       </c>
       <c r="AC6" t="n">
-        <v>3045.752197645054</v>
+        <v>3425.336026024844</v>
       </c>
       <c r="AD6" t="n">
-        <v>2460894.09278636</v>
+        <v>2767588.643216072</v>
       </c>
       <c r="AE6" t="n">
-        <v>3367103.864735591</v>
+        <v>3786736.879042183</v>
       </c>
       <c r="AF6" t="n">
         <v>2.990762454230786e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>63</v>
+        <v>62.44140625</v>
       </c>
       <c r="AH6" t="n">
-        <v>3045752.197645054</v>
+        <v>3425336.026024844</v>
       </c>
     </row>
     <row r="7">
@@ -15182,28 +15182,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2368.082039751057</v>
+        <v>2665.222311815958</v>
       </c>
       <c r="AB7" t="n">
-        <v>3240.114319193883</v>
+        <v>3646.674748336726</v>
       </c>
       <c r="AC7" t="n">
-        <v>2930.882356098905</v>
+        <v>3298.641228495485</v>
       </c>
       <c r="AD7" t="n">
-        <v>2368082.039751058</v>
+        <v>2665222.311815958</v>
       </c>
       <c r="AE7" t="n">
-        <v>3240114.319193883</v>
+        <v>3646674.748336726</v>
       </c>
       <c r="AF7" t="n">
         <v>3.042678441975657e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>62</v>
+        <v>61.37369791666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2930882.356098905</v>
+        <v>3298641.228495486</v>
       </c>
     </row>
     <row r="8">
@@ -15288,28 +15288,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2284.790593475995</v>
+        <v>2581.998185348599</v>
       </c>
       <c r="AB8" t="n">
-        <v>3126.151287841065</v>
+        <v>3532.803826914748</v>
       </c>
       <c r="AC8" t="n">
-        <v>2827.795796510284</v>
+        <v>3195.637987995184</v>
       </c>
       <c r="AD8" t="n">
-        <v>2284790.593475995</v>
+        <v>2581998.185348599</v>
       </c>
       <c r="AE8" t="n">
-        <v>3126151.287841065</v>
+        <v>3532803.826914748</v>
       </c>
       <c r="AF8" t="n">
         <v>3.082547625934425e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>61</v>
+        <v>60.57942708333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>2827795.796510284</v>
+        <v>3195637.987995184</v>
       </c>
     </row>
     <row r="9">
@@ -15394,28 +15394,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2229.179557671239</v>
+        <v>2516.765551371326</v>
       </c>
       <c r="AB9" t="n">
-        <v>3050.061815267243</v>
+        <v>3443.549659246337</v>
       </c>
       <c r="AC9" t="n">
-        <v>2758.968196406667</v>
+        <v>3114.902112820037</v>
       </c>
       <c r="AD9" t="n">
-        <v>2229179.557671239</v>
+        <v>2516765.551371326</v>
       </c>
       <c r="AE9" t="n">
-        <v>3050061.815267243</v>
+        <v>3443549.659246337</v>
       </c>
       <c r="AF9" t="n">
         <v>3.110943663430239e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>61</v>
+        <v>60.02604166666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>2758968.196406667</v>
+        <v>3114902.112820037</v>
       </c>
     </row>
     <row r="10">
@@ -15500,28 +15500,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2171.544147483227</v>
+        <v>2468.717573937053</v>
       </c>
       <c r="AB10" t="n">
-        <v>2971.202504352989</v>
+        <v>3377.808296793599</v>
       </c>
       <c r="AC10" t="n">
-        <v>2687.635107446444</v>
+        <v>3055.435013731209</v>
       </c>
       <c r="AD10" t="n">
-        <v>2171544.147483227</v>
+        <v>2468717.573937053</v>
       </c>
       <c r="AE10" t="n">
-        <v>2971202.504352989</v>
+        <v>3377808.296793599</v>
       </c>
       <c r="AF10" t="n">
         <v>3.129587526432541e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>60</v>
+        <v>59.66796875</v>
       </c>
       <c r="AH10" t="n">
-        <v>2687635.107446444</v>
+        <v>3055435.01373121</v>
       </c>
     </row>
     <row r="11">
@@ -15606,28 +15606,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2161.482504802259</v>
+        <v>2458.655931256086</v>
       </c>
       <c r="AB11" t="n">
-        <v>2957.435720948542</v>
+        <v>3364.041513389151</v>
       </c>
       <c r="AC11" t="n">
-        <v>2675.182206528316</v>
+        <v>3042.982112813081</v>
       </c>
       <c r="AD11" t="n">
-        <v>2161482.50480226</v>
+        <v>2458655.931256086</v>
       </c>
       <c r="AE11" t="n">
-        <v>2957435.720948542</v>
+        <v>3364041.513389151</v>
       </c>
       <c r="AF11" t="n">
         <v>3.134176785017723e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>60</v>
+        <v>59.58333333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>2675182.206528316</v>
+        <v>3042982.112813081</v>
       </c>
     </row>
     <row r="12">
@@ -15712,28 +15712,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2169.892498675421</v>
+        <v>2467.065925129246</v>
       </c>
       <c r="AB12" t="n">
-        <v>2968.942645588544</v>
+        <v>3375.548438029154</v>
       </c>
       <c r="AC12" t="n">
-        <v>2685.590926430747</v>
+        <v>3053.390832715512</v>
       </c>
       <c r="AD12" t="n">
-        <v>2169892.498675421</v>
+        <v>2467065.925129246</v>
       </c>
       <c r="AE12" t="n">
-        <v>2968942.645588544</v>
+        <v>3375548.438029154</v>
       </c>
       <c r="AF12" t="n">
         <v>3.134463613679297e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>60</v>
+        <v>59.5703125</v>
       </c>
       <c r="AH12" t="n">
-        <v>2685590.926430747</v>
+        <v>3053390.832715512</v>
       </c>
     </row>
   </sheetData>
@@ -16009,28 +16009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6244.331151096711</v>
+        <v>6774.971308871312</v>
       </c>
       <c r="AB2" t="n">
-        <v>8543.76936137896</v>
+        <v>9269.814635437762</v>
       </c>
       <c r="AC2" t="n">
-        <v>7728.36400478424</v>
+        <v>8385.116536897785</v>
       </c>
       <c r="AD2" t="n">
-        <v>6244331.151096712</v>
+        <v>6774971.308871312</v>
       </c>
       <c r="AE2" t="n">
-        <v>8543769.36137896</v>
+        <v>9269814.635437762</v>
       </c>
       <c r="AF2" t="n">
         <v>1.643398022101959e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>108</v>
+        <v>107.2526041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>7728364.00478424</v>
+        <v>8385116.536897786</v>
       </c>
     </row>
     <row r="3">
@@ -16115,28 +16115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3606.78053361045</v>
+        <v>3992.687489272525</v>
       </c>
       <c r="AB3" t="n">
-        <v>4934.956246013121</v>
+        <v>5462.97116776332</v>
       </c>
       <c r="AC3" t="n">
-        <v>4463.970948148035</v>
+        <v>4941.592866839972</v>
       </c>
       <c r="AD3" t="n">
-        <v>3606780.53361045</v>
+        <v>3992687.489272525</v>
       </c>
       <c r="AE3" t="n">
-        <v>4934956.246013121</v>
+        <v>5462971.167763321</v>
       </c>
       <c r="AF3" t="n">
         <v>2.320250584746917e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>76</v>
+        <v>75.97005208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4463970.948148035</v>
+        <v>4941592.866839972</v>
       </c>
     </row>
     <row r="4">
@@ -16221,28 +16221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3077.12151512169</v>
+        <v>3424.458274468826</v>
       </c>
       <c r="AB4" t="n">
-        <v>4210.253410010017</v>
+        <v>4685.494887565145</v>
       </c>
       <c r="AC4" t="n">
-        <v>3808.432733686275</v>
+        <v>4238.317831629127</v>
       </c>
       <c r="AD4" t="n">
-        <v>3077121.51512169</v>
+        <v>3424458.274468826</v>
       </c>
       <c r="AE4" t="n">
-        <v>4210253.410010017</v>
+        <v>4685494.887565145</v>
       </c>
       <c r="AF4" t="n">
         <v>2.566354176524624e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>69</v>
+        <v>68.67838541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3808432.733686275</v>
+        <v>4238317.831629127</v>
       </c>
     </row>
     <row r="5">
@@ -16327,28 +16327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2835.207593251208</v>
+        <v>3153.592092327911</v>
       </c>
       <c r="AB5" t="n">
-        <v>3879.256109617798</v>
+        <v>4314.883827387341</v>
       </c>
       <c r="AC5" t="n">
-        <v>3509.025351085874</v>
+        <v>3903.077370878817</v>
       </c>
       <c r="AD5" t="n">
-        <v>2835207.593251208</v>
+        <v>3153592.092327911</v>
       </c>
       <c r="AE5" t="n">
-        <v>3879256.109617798</v>
+        <v>4314883.82738734</v>
       </c>
       <c r="AF5" t="n">
         <v>2.698205055727862e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>66</v>
+        <v>65.32552083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3509025.351085874</v>
+        <v>3903077.370878817</v>
       </c>
     </row>
     <row r="6">
@@ -16433,28 +16433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2688.788344271445</v>
+        <v>3007.104512510586</v>
       </c>
       <c r="AB6" t="n">
-        <v>3678.918833602302</v>
+        <v>4114.45305810535</v>
       </c>
       <c r="AC6" t="n">
-        <v>3327.807983518172</v>
+        <v>3721.775432910754</v>
       </c>
       <c r="AD6" t="n">
-        <v>2688788.344271445</v>
+        <v>3007104.512510586</v>
       </c>
       <c r="AE6" t="n">
-        <v>3678918.833602302</v>
+        <v>4114453.05810535</v>
       </c>
       <c r="AF6" t="n">
         <v>2.778344399145026e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>64</v>
+        <v>63.4375</v>
       </c>
       <c r="AH6" t="n">
-        <v>3327807.983518172</v>
+        <v>3721775.432910754</v>
       </c>
     </row>
     <row r="7">
@@ -16539,28 +16539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2585.882691682604</v>
+        <v>2894.581934907097</v>
       </c>
       <c r="AB7" t="n">
-        <v>3538.118779853259</v>
+        <v>3960.494703282474</v>
       </c>
       <c r="AC7" t="n">
-        <v>3200.445689284826</v>
+        <v>3582.510647390273</v>
       </c>
       <c r="AD7" t="n">
-        <v>2585882.691682604</v>
+        <v>2894581.934907097</v>
       </c>
       <c r="AE7" t="n">
-        <v>3538118.779853259</v>
+        <v>3960494.703282475</v>
       </c>
       <c r="AF7" t="n">
         <v>2.834387791332027e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>63</v>
+        <v>62.1875</v>
       </c>
       <c r="AH7" t="n">
-        <v>3200445.689284826</v>
+        <v>3582510.647390273</v>
       </c>
     </row>
     <row r="8">
@@ -16645,28 +16645,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2508.603134743253</v>
+        <v>2807.685452953097</v>
       </c>
       <c r="AB8" t="n">
-        <v>3432.381480715399</v>
+        <v>3841.599103070782</v>
       </c>
       <c r="AC8" t="n">
-        <v>3104.799809573456</v>
+        <v>3474.962276391767</v>
       </c>
       <c r="AD8" t="n">
-        <v>2508603.134743253</v>
+        <v>2807685.452953096</v>
       </c>
       <c r="AE8" t="n">
-        <v>3432381.480715399</v>
+        <v>3841599.103070782</v>
       </c>
       <c r="AF8" t="n">
         <v>2.872562275865203e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>62</v>
+        <v>61.36067708333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>3104799.809573456</v>
+        <v>3474962.276391767</v>
       </c>
     </row>
     <row r="9">
@@ -16751,28 +16751,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2437.751717886727</v>
+        <v>2736.901355904276</v>
       </c>
       <c r="AB9" t="n">
-        <v>3335.439446428388</v>
+        <v>3744.749178714613</v>
       </c>
       <c r="AC9" t="n">
-        <v>3017.109786979801</v>
+        <v>3387.355572886431</v>
       </c>
       <c r="AD9" t="n">
-        <v>2437751.717886727</v>
+        <v>2736901.355904276</v>
       </c>
       <c r="AE9" t="n">
-        <v>3335439.446428388</v>
+        <v>3744749.178714613</v>
       </c>
       <c r="AF9" t="n">
         <v>2.904509716822045e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>61</v>
+        <v>60.69010416666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>3017109.786979801</v>
+        <v>3387355.572886431</v>
       </c>
     </row>
     <row r="10">
@@ -16857,28 +16857,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2384.633531948481</v>
+        <v>2683.681684739543</v>
       </c>
       <c r="AB10" t="n">
-        <v>3262.7608010187</v>
+        <v>3671.931676740836</v>
       </c>
       <c r="AC10" t="n">
-        <v>2951.367489482897</v>
+        <v>3321.487671101028</v>
       </c>
       <c r="AD10" t="n">
-        <v>2384633.531948481</v>
+        <v>2683681.684739544</v>
       </c>
       <c r="AE10" t="n">
-        <v>3262760.8010187</v>
+        <v>3671931.676740836</v>
       </c>
       <c r="AF10" t="n">
         <v>2.926981221901858e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>61</v>
+        <v>60.22135416666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>2951367.489482897</v>
+        <v>3321487.671101028</v>
       </c>
     </row>
     <row r="11">
@@ -16963,28 +16963,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2326.411954689486</v>
+        <v>2625.527427288253</v>
       </c>
       <c r="AB11" t="n">
-        <v>3183.099470458229</v>
+        <v>3592.362456111206</v>
       </c>
       <c r="AC11" t="n">
-        <v>2879.308924505742</v>
+        <v>3249.512425212191</v>
       </c>
       <c r="AD11" t="n">
-        <v>2326411.954689486</v>
+        <v>2625527.427288253</v>
       </c>
       <c r="AE11" t="n">
-        <v>3183099.470458229</v>
+        <v>3592362.456111207</v>
       </c>
       <c r="AF11" t="n">
         <v>2.945933093655917e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>60</v>
+        <v>59.83072916666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>2879308.924505742</v>
+        <v>3249512.425212191</v>
       </c>
     </row>
     <row r="12">
@@ -17069,28 +17069,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2280.198260900882</v>
+        <v>2579.313733499649</v>
       </c>
       <c r="AB12" t="n">
-        <v>3119.86785581238</v>
+        <v>3529.130841465358</v>
       </c>
       <c r="AC12" t="n">
-        <v>2822.112046415565</v>
+        <v>3192.315547122016</v>
       </c>
       <c r="AD12" t="n">
-        <v>2280198.260900882</v>
+        <v>2579313.733499649</v>
       </c>
       <c r="AE12" t="n">
-        <v>3119867.85581238</v>
+        <v>3529130.841465358</v>
       </c>
       <c r="AF12" t="n">
         <v>2.960823850034106e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>60</v>
+        <v>59.53776041666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>2822112.046415565</v>
+        <v>3192315.547122016</v>
       </c>
     </row>
     <row r="13">
@@ -17175,28 +17175,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2265.961507185784</v>
+        <v>2564.975494558066</v>
       </c>
       <c r="AB13" t="n">
-        <v>3100.388501298135</v>
+        <v>3509.512630387023</v>
       </c>
       <c r="AC13" t="n">
-        <v>2804.491774156715</v>
+        <v>3174.569670574666</v>
       </c>
       <c r="AD13" t="n">
-        <v>2265961.507185784</v>
+        <v>2564975.494558066</v>
       </c>
       <c r="AE13" t="n">
-        <v>3100388.501298136</v>
+        <v>3509512.630387024</v>
       </c>
       <c r="AF13" t="n">
         <v>2.96705089361044e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>60</v>
+        <v>59.40755208333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>2804491.774156715</v>
+        <v>3174569.670574666</v>
       </c>
     </row>
     <row r="14">
@@ -17281,28 +17281,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2274.555411943508</v>
+        <v>2573.56939931579</v>
       </c>
       <c r="AB14" t="n">
-        <v>3112.147060923974</v>
+        <v>3521.271190012862</v>
       </c>
       <c r="AC14" t="n">
-        <v>2815.128113355105</v>
+        <v>3185.206009773056</v>
       </c>
       <c r="AD14" t="n">
-        <v>2274555.411943508</v>
+        <v>2573569.39931579</v>
       </c>
       <c r="AE14" t="n">
-        <v>3112147.060923974</v>
+        <v>3521271.190012862</v>
       </c>
       <c r="AF14" t="n">
         <v>2.966509411560324e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>60</v>
+        <v>59.42057291666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>2815128.113355105</v>
+        <v>3185206.009773056</v>
       </c>
     </row>
     <row r="15">
@@ -17387,28 +17387,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2282.899384191834</v>
+        <v>2581.913371564116</v>
       </c>
       <c r="AB15" t="n">
-        <v>3123.56365186421</v>
+        <v>3532.687780953097</v>
       </c>
       <c r="AC15" t="n">
-        <v>2825.45512087929</v>
+        <v>3195.533017297241</v>
       </c>
       <c r="AD15" t="n">
-        <v>2282899.384191833</v>
+        <v>2581913.371564115</v>
       </c>
       <c r="AE15" t="n">
-        <v>3123563.65186421</v>
+        <v>3532687.780953098</v>
       </c>
       <c r="AF15" t="n">
         <v>2.966509411560324e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>60</v>
+        <v>59.42057291666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>2825455.120879291</v>
+        <v>3195533.017297241</v>
       </c>
     </row>
   </sheetData>
@@ -17684,28 +17684,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8838.133597103639</v>
+        <v>9482.309878476635</v>
       </c>
       <c r="AB2" t="n">
-        <v>12092.72429849366</v>
+        <v>12974.11470572007</v>
       </c>
       <c r="AC2" t="n">
-        <v>10938.61166369012</v>
+        <v>11735.88340749</v>
       </c>
       <c r="AD2" t="n">
-        <v>8838133.597103639</v>
+        <v>9482309.878476635</v>
       </c>
       <c r="AE2" t="n">
-        <v>12092724.29849366</v>
+        <v>12974114.70572007</v>
       </c>
       <c r="AF2" t="n">
         <v>1.263815892149325e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>127</v>
+        <v>126.77734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>10938611.66369012</v>
+        <v>11735883.40749</v>
       </c>
     </row>
     <row r="3">
@@ -17790,28 +17790,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4443.873128022364</v>
+        <v>4853.776546401487</v>
       </c>
       <c r="AB3" t="n">
-        <v>6080.30326360645</v>
+        <v>6641.151204295338</v>
       </c>
       <c r="AC3" t="n">
-        <v>5500.007653886848</v>
+        <v>6007.329054271397</v>
       </c>
       <c r="AD3" t="n">
-        <v>4443873.128022363</v>
+        <v>4853776.546401488</v>
       </c>
       <c r="AE3" t="n">
-        <v>6080303.26360645</v>
+        <v>6641151.204295338</v>
       </c>
       <c r="AF3" t="n">
         <v>1.95368462548809e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>83</v>
+        <v>82.01171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>5500007.653886848</v>
+        <v>6007329.054271396</v>
       </c>
     </row>
     <row r="4">
@@ -17896,28 +17896,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3660.285819135838</v>
+        <v>4021.375062631107</v>
       </c>
       <c r="AB4" t="n">
-        <v>5008.164538155565</v>
+        <v>5502.22277123895</v>
       </c>
       <c r="AC4" t="n">
-        <v>4530.192343636884</v>
+        <v>4977.098352369858</v>
       </c>
       <c r="AD4" t="n">
-        <v>3660285.819135838</v>
+        <v>4021375.062631106</v>
       </c>
       <c r="AE4" t="n">
-        <v>5008164.538155565</v>
+        <v>5502222.77123895</v>
       </c>
       <c r="AF4" t="n">
         <v>2.216784759608368e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>73</v>
+        <v>72.28515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>4530192.343636884</v>
+        <v>4977098.352369858</v>
       </c>
     </row>
     <row r="5">
@@ -18002,28 +18002,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3317.618470883412</v>
+        <v>3659.249364232843</v>
       </c>
       <c r="AB5" t="n">
-        <v>4539.311954860098</v>
+        <v>5006.746414832122</v>
       </c>
       <c r="AC5" t="n">
-        <v>4106.086392852421</v>
+        <v>4528.909564013084</v>
       </c>
       <c r="AD5" t="n">
-        <v>3317618.470883412</v>
+        <v>3659249.364232843</v>
       </c>
       <c r="AE5" t="n">
-        <v>4539311.954860098</v>
+        <v>5006746.414832123</v>
       </c>
       <c r="AF5" t="n">
         <v>2.358056487377348e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>68</v>
+        <v>67.95572916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>4106086.392852421</v>
+        <v>4528909.564013083</v>
       </c>
     </row>
     <row r="6">
@@ -18108,28 +18108,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3131.921873168909</v>
+        <v>3463.789931541568</v>
       </c>
       <c r="AB6" t="n">
-        <v>4285.233677511397</v>
+        <v>4739.310195962321</v>
       </c>
       <c r="AC6" t="n">
-        <v>3876.256989692787</v>
+        <v>4286.997082523136</v>
       </c>
       <c r="AD6" t="n">
-        <v>3131921.873168909</v>
+        <v>3463789.931541569</v>
       </c>
       <c r="AE6" t="n">
-        <v>4285233.677511397</v>
+        <v>4739310.195962321</v>
       </c>
       <c r="AF6" t="n">
         <v>2.445674492753231e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>66</v>
+        <v>65.51432291666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3876256.989692787</v>
+        <v>4286997.082523135</v>
       </c>
     </row>
     <row r="7">
@@ -18214,28 +18214,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3002.609966912177</v>
+        <v>3324.715190308065</v>
       </c>
       <c r="AB7" t="n">
-        <v>4108.303422532248</v>
+        <v>4549.021999462073</v>
       </c>
       <c r="AC7" t="n">
-        <v>3716.212709925683</v>
+        <v>4114.869724425716</v>
       </c>
       <c r="AD7" t="n">
-        <v>3002609.966912177</v>
+        <v>3324715.190308065</v>
       </c>
       <c r="AE7" t="n">
-        <v>4108303.422532248</v>
+        <v>4549021.999462073</v>
       </c>
       <c r="AF7" t="n">
         <v>2.505235046969422e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>64</v>
+        <v>63.95833333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>3716212.709925683</v>
+        <v>4114869.724425716</v>
       </c>
     </row>
     <row r="8">
@@ -18320,28 +18320,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2909.448814528203</v>
+        <v>3231.51987250531</v>
       </c>
       <c r="AB8" t="n">
-        <v>3980.836223860511</v>
+        <v>4421.508054157088</v>
       </c>
       <c r="AC8" t="n">
-        <v>3600.910801793845</v>
+        <v>3999.525531093698</v>
       </c>
       <c r="AD8" t="n">
-        <v>2909448.814528203</v>
+        <v>3231519.87250531</v>
       </c>
       <c r="AE8" t="n">
-        <v>3980836.223860512</v>
+        <v>4421508.054157088</v>
       </c>
       <c r="AF8" t="n">
         <v>2.548305695679477e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>63</v>
+        <v>62.87760416666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>3600910.801793845</v>
+        <v>3999525.531093698</v>
       </c>
     </row>
     <row r="9">
@@ -18426,28 +18426,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2844.690812513755</v>
+        <v>3156.965881125167</v>
       </c>
       <c r="AB9" t="n">
-        <v>3892.231468582922</v>
+        <v>4319.499994060805</v>
       </c>
       <c r="AC9" t="n">
-        <v>3520.762360002397</v>
+        <v>3907.252977083795</v>
       </c>
       <c r="AD9" t="n">
-        <v>2844690.812513755</v>
+        <v>3156965.881125167</v>
       </c>
       <c r="AE9" t="n">
-        <v>3892231.468582922</v>
+        <v>4319499.994060805</v>
       </c>
       <c r="AF9" t="n">
         <v>2.581531624684376e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>63</v>
+        <v>62.06380208333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>3520762.360002397</v>
+        <v>3907252.977083796</v>
       </c>
     </row>
     <row r="10">
@@ -18532,28 +18532,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2781.825636446469</v>
+        <v>3094.0665396391</v>
       </c>
       <c r="AB10" t="n">
-        <v>3806.216561271826</v>
+        <v>4233.43834011646</v>
       </c>
       <c r="AC10" t="n">
-        <v>3442.956594722395</v>
+        <v>3829.404926603614</v>
       </c>
       <c r="AD10" t="n">
-        <v>2781825.636446469</v>
+        <v>3094066.5396391</v>
       </c>
       <c r="AE10" t="n">
-        <v>3806216.561271826</v>
+        <v>4233438.34011646</v>
       </c>
       <c r="AF10" t="n">
         <v>2.606143423947264e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>62</v>
+        <v>61.47786458333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>3442956.594722394</v>
+        <v>3829404.926603613</v>
       </c>
     </row>
     <row r="11">
@@ -18638,28 +18638,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2722.9362412813</v>
+        <v>3035.244464281636</v>
       </c>
       <c r="AB11" t="n">
-        <v>3725.641492790082</v>
+        <v>4152.955381565558</v>
       </c>
       <c r="AC11" t="n">
-        <v>3370.071497688732</v>
+        <v>3756.60314865827</v>
       </c>
       <c r="AD11" t="n">
-        <v>2722936.2412813</v>
+        <v>3035244.464281636</v>
       </c>
       <c r="AE11" t="n">
-        <v>3725641.492790082</v>
+        <v>4152955.381565558</v>
       </c>
       <c r="AF11" t="n">
         <v>2.629032397261751e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>61</v>
+        <v>60.95052083333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>3370071.497688732</v>
+        <v>3756603.14865827</v>
       </c>
     </row>
     <row r="12">
@@ -18744,28 +18744,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2681.617400669773</v>
+        <v>2984.2311195309</v>
       </c>
       <c r="AB12" t="n">
-        <v>3669.107232206791</v>
+        <v>4083.156672727662</v>
       </c>
       <c r="AC12" t="n">
-        <v>3318.93278758918</v>
+        <v>3693.465930628763</v>
       </c>
       <c r="AD12" t="n">
-        <v>2681617.400669773</v>
+        <v>2984231.1195309</v>
       </c>
       <c r="AE12" t="n">
-        <v>3669107.232206791</v>
+        <v>4083156.672727662</v>
       </c>
       <c r="AF12" t="n">
         <v>2.645522302767886e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>61</v>
+        <v>60.56640625</v>
       </c>
       <c r="AH12" t="n">
-        <v>3318932.78758918</v>
+        <v>3693465.930628763</v>
       </c>
     </row>
     <row r="13">
@@ -18850,28 +18850,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2640.956469371037</v>
+        <v>2943.468703005678</v>
       </c>
       <c r="AB13" t="n">
-        <v>3613.473152170171</v>
+        <v>4027.383736126952</v>
       </c>
       <c r="AC13" t="n">
-        <v>3268.608346068334</v>
+        <v>3643.015884819418</v>
       </c>
       <c r="AD13" t="n">
-        <v>2640956.469371037</v>
+        <v>2943468.703005678</v>
       </c>
       <c r="AE13" t="n">
-        <v>3613473.152170171</v>
+        <v>4027383.736126952</v>
       </c>
       <c r="AF13" t="n">
         <v>2.661027736303506e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>61</v>
+        <v>60.21484375</v>
       </c>
       <c r="AH13" t="n">
-        <v>3268608.346068334</v>
+        <v>3643015.884819418</v>
       </c>
     </row>
     <row r="14">
@@ -18956,28 +18956,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2590.586010043102</v>
+        <v>2893.165563485448</v>
       </c>
       <c r="AB14" t="n">
-        <v>3544.554067529855</v>
+        <v>3958.556761417477</v>
       </c>
       <c r="AC14" t="n">
-        <v>3206.266802137549</v>
+        <v>3580.757659976953</v>
       </c>
       <c r="AD14" t="n">
-        <v>2590586.010043102</v>
+        <v>2893165.563485448</v>
       </c>
       <c r="AE14" t="n">
-        <v>3544554.067529855</v>
+        <v>3958556.761417477</v>
       </c>
       <c r="AF14" t="n">
         <v>2.674810343890723e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>60</v>
+        <v>59.90234375</v>
       </c>
       <c r="AH14" t="n">
-        <v>3206266.80213755</v>
+        <v>3580757.659976953</v>
       </c>
     </row>
     <row r="15">
@@ -19062,28 +19062,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2556.464065485596</v>
+        <v>2859.043618927941</v>
       </c>
       <c r="AB15" t="n">
-        <v>3497.86691763232</v>
+        <v>3911.869611519943</v>
       </c>
       <c r="AC15" t="n">
-        <v>3164.035408300411</v>
+        <v>3538.526266139814</v>
       </c>
       <c r="AD15" t="n">
-        <v>2556464.065485596</v>
+        <v>2859043.618927941</v>
       </c>
       <c r="AE15" t="n">
-        <v>3497866.917632319</v>
+        <v>3911869.611519943</v>
       </c>
       <c r="AF15" t="n">
         <v>2.685393417573766e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>60</v>
+        <v>59.66796875</v>
       </c>
       <c r="AH15" t="n">
-        <v>3164035.408300411</v>
+        <v>3538526.266139814</v>
       </c>
     </row>
     <row r="16">
@@ -19168,28 +19168,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2522.881420097561</v>
+        <v>2825.359488313421</v>
       </c>
       <c r="AB16" t="n">
-        <v>3451.917660650658</v>
+        <v>3865.781497974192</v>
       </c>
       <c r="AC16" t="n">
-        <v>3122.471483914893</v>
+        <v>3496.836737465797</v>
       </c>
       <c r="AD16" t="n">
-        <v>2522881.420097561</v>
+        <v>2825359.488313422</v>
       </c>
       <c r="AE16" t="n">
-        <v>3451917.660650657</v>
+        <v>3865781.497974191</v>
       </c>
       <c r="AF16" t="n">
         <v>2.694007547315777e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>60</v>
+        <v>59.47916666666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>3122471.483914893</v>
+        <v>3496836.737465797</v>
       </c>
     </row>
     <row r="17">
@@ -19274,28 +19274,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2495.745496774064</v>
+        <v>2788.529060850715</v>
       </c>
       <c r="AB17" t="n">
-        <v>3414.789093207</v>
+        <v>3815.388482275929</v>
       </c>
       <c r="AC17" t="n">
-        <v>3088.886414837788</v>
+        <v>3451.253160458738</v>
       </c>
       <c r="AD17" t="n">
-        <v>2495745.496774064</v>
+        <v>2788529.060850715</v>
       </c>
       <c r="AE17" t="n">
-        <v>3414789.093207</v>
+        <v>3815388.482275929</v>
       </c>
       <c r="AF17" t="n">
         <v>2.69991437913887e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>60</v>
+        <v>59.34895833333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>3088886.414837788</v>
+        <v>3451253.160458738</v>
       </c>
     </row>
     <row r="18">
@@ -19380,28 +19380,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2483.389695059588</v>
+        <v>2776.173259136239</v>
       </c>
       <c r="AB18" t="n">
-        <v>3397.883340201753</v>
+        <v>3798.482729270682</v>
       </c>
       <c r="AC18" t="n">
-        <v>3073.594123171989</v>
+        <v>3435.960868792939</v>
       </c>
       <c r="AD18" t="n">
-        <v>2483389.695059588</v>
+        <v>2776173.259136239</v>
       </c>
       <c r="AE18" t="n">
-        <v>3397883.340201753</v>
+        <v>3798482.729270682</v>
       </c>
       <c r="AF18" t="n">
         <v>2.704098385013561e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>60</v>
+        <v>59.2578125</v>
       </c>
       <c r="AH18" t="n">
-        <v>3073594.123171989</v>
+        <v>3435960.868792939</v>
       </c>
     </row>
     <row r="19">
@@ -19486,28 +19486,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2483.979777441502</v>
+        <v>2776.763341518154</v>
       </c>
       <c r="AB19" t="n">
-        <v>3398.690716949287</v>
+        <v>3799.290106018214</v>
       </c>
       <c r="AC19" t="n">
-        <v>3074.324445015899</v>
+        <v>3436.691190636847</v>
       </c>
       <c r="AD19" t="n">
-        <v>2483979.777441503</v>
+        <v>2776763.341518154</v>
       </c>
       <c r="AE19" t="n">
-        <v>3398690.716949286</v>
+        <v>3799290.106018214</v>
       </c>
       <c r="AF19" t="n">
         <v>2.705328974976705e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>60</v>
+        <v>59.23177083333334</v>
       </c>
       <c r="AH19" t="n">
-        <v>3074324.445015898</v>
+        <v>3436691.190636847</v>
       </c>
     </row>
     <row r="20">
@@ -19592,28 +19592,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2495.41402415808</v>
+        <v>2788.197588234731</v>
       </c>
       <c r="AB20" t="n">
-        <v>3414.335557750271</v>
+        <v>3814.9349468192</v>
       </c>
       <c r="AC20" t="n">
-        <v>3088.476164168509</v>
+        <v>3450.842909789457</v>
       </c>
       <c r="AD20" t="n">
-        <v>2495414.02415808</v>
+        <v>2788197.588234731</v>
       </c>
       <c r="AE20" t="n">
-        <v>3414335.557750271</v>
+        <v>3814934.9468192</v>
       </c>
       <c r="AF20" t="n">
         <v>2.705082856984076e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>60</v>
+        <v>59.23828125</v>
       </c>
       <c r="AH20" t="n">
-        <v>3088476.164168509</v>
+        <v>3450842.909789457</v>
       </c>
     </row>
   </sheetData>
@@ -19889,28 +19889,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4359.420204849267</v>
+        <v>4806.779747504392</v>
       </c>
       <c r="AB2" t="n">
-        <v>5964.751048320996</v>
+        <v>6576.84811069189</v>
       </c>
       <c r="AC2" t="n">
-        <v>5395.483579849691</v>
+        <v>5949.162957671504</v>
       </c>
       <c r="AD2" t="n">
-        <v>4359420.204849267</v>
+        <v>4806779.747504392</v>
       </c>
       <c r="AE2" t="n">
-        <v>5964751.048320997</v>
+        <v>6576848.11069189</v>
       </c>
       <c r="AF2" t="n">
         <v>2.18212142094274e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>92</v>
+        <v>91.53645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5395483.57984969</v>
+        <v>5949162.957671504</v>
       </c>
     </row>
     <row r="3">
@@ -19995,28 +19995,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2868.491160239973</v>
+        <v>3211.167706432611</v>
       </c>
       <c r="AB3" t="n">
-        <v>3924.796154339173</v>
+        <v>4393.661322662221</v>
       </c>
       <c r="AC3" t="n">
-        <v>3550.219117854893</v>
+        <v>3974.336452569569</v>
       </c>
       <c r="AD3" t="n">
-        <v>2868491.160239973</v>
+        <v>3211167.706432611</v>
       </c>
       <c r="AE3" t="n">
-        <v>3924796.154339172</v>
+        <v>4393661.322662221</v>
       </c>
       <c r="AF3" t="n">
         <v>2.829516836886101e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>71</v>
+        <v>70.59895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3550219.117854893</v>
+        <v>3974336.452569569</v>
       </c>
     </row>
     <row r="4">
@@ -20101,28 +20101,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2516.996141238647</v>
+        <v>2831.046141655963</v>
       </c>
       <c r="AB4" t="n">
-        <v>3443.865162475713</v>
+        <v>3873.562227954895</v>
       </c>
       <c r="AC4" t="n">
-        <v>3115.187504864013</v>
+        <v>3503.874885497466</v>
       </c>
       <c r="AD4" t="n">
-        <v>2516996.141238648</v>
+        <v>2831046.141655963</v>
       </c>
       <c r="AE4" t="n">
-        <v>3443865.162475713</v>
+        <v>3873562.227954895</v>
       </c>
       <c r="AF4" t="n">
         <v>3.058099578534349e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>66</v>
+        <v>65.31901041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3115187.504864013</v>
+        <v>3503874.885497467</v>
       </c>
     </row>
     <row r="5">
@@ -20207,28 +20207,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2336.446193162766</v>
+        <v>2650.495182550223</v>
       </c>
       <c r="AB5" t="n">
-        <v>3196.82875821673</v>
+        <v>3626.524440360259</v>
       </c>
       <c r="AC5" t="n">
-        <v>2891.727908309746</v>
+        <v>3280.414037631159</v>
       </c>
       <c r="AD5" t="n">
-        <v>2336446.193162766</v>
+        <v>2650495.182550224</v>
       </c>
       <c r="AE5" t="n">
-        <v>3196828.75821673</v>
+        <v>3626524.440360259</v>
       </c>
       <c r="AF5" t="n">
         <v>3.177760342618667e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>63</v>
+        <v>62.85807291666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2891727.908309747</v>
+        <v>3280414.037631159</v>
       </c>
     </row>
     <row r="6">
@@ -20313,28 +20313,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2223.18147568677</v>
+        <v>2527.643403277318</v>
       </c>
       <c r="AB6" t="n">
-        <v>3041.854974879393</v>
+        <v>3458.433216121071</v>
       </c>
       <c r="AC6" t="n">
-        <v>2751.544605347059</v>
+        <v>3128.36520391585</v>
       </c>
       <c r="AD6" t="n">
-        <v>2223181.47568677</v>
+        <v>2527643.403277318</v>
       </c>
       <c r="AE6" t="n">
-        <v>3041854.974879392</v>
+        <v>3458433.216121071</v>
       </c>
       <c r="AF6" t="n">
         <v>3.251397735901324e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>62</v>
+        <v>61.43880208333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2751544.605347059</v>
+        <v>3128365.20391585</v>
       </c>
     </row>
     <row r="7">
@@ -20419,28 +20419,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2132.444537193937</v>
+        <v>2427.522373440547</v>
       </c>
       <c r="AB7" t="n">
-        <v>2917.704692602117</v>
+        <v>3321.443206070295</v>
       </c>
       <c r="AC7" t="n">
-        <v>2639.243051764425</v>
+        <v>3004.449328157639</v>
       </c>
       <c r="AD7" t="n">
-        <v>2132444.537193937</v>
+        <v>2427522.373440547</v>
       </c>
       <c r="AE7" t="n">
-        <v>2917704.692602117</v>
+        <v>3321443.206070295</v>
       </c>
       <c r="AF7" t="n">
         <v>3.30171662131114e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>61</v>
+        <v>60.50130208333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2639243.051764425</v>
+        <v>3004449.328157639</v>
       </c>
     </row>
     <row r="8">
@@ -20525,28 +20525,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2059.377492246987</v>
+        <v>2354.421163074816</v>
       </c>
       <c r="AB8" t="n">
-        <v>2817.731138215179</v>
+        <v>3221.422905050104</v>
       </c>
       <c r="AC8" t="n">
-        <v>2548.810833094412</v>
+        <v>2913.974824287444</v>
       </c>
       <c r="AD8" t="n">
-        <v>2059377.492246987</v>
+        <v>2354421.163074816</v>
       </c>
       <c r="AE8" t="n">
-        <v>2817731.138215179</v>
+        <v>3221422.905050104</v>
       </c>
       <c r="AF8" t="n">
         <v>3.333932980872302e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>60</v>
+        <v>59.91536458333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>2548810.833094412</v>
+        <v>2913974.824287444</v>
       </c>
     </row>
     <row r="9">
@@ -20631,28 +20631,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2049.371272876576</v>
+        <v>2344.414943704405</v>
       </c>
       <c r="AB9" t="n">
-        <v>2804.04018742934</v>
+        <v>3207.731954264264</v>
       </c>
       <c r="AC9" t="n">
-        <v>2536.426527436203</v>
+        <v>2901.590518629235</v>
       </c>
       <c r="AD9" t="n">
-        <v>2049371.272876576</v>
+        <v>2344414.943704405</v>
       </c>
       <c r="AE9" t="n">
-        <v>2804040.18742934</v>
+        <v>3207731.954264264</v>
       </c>
       <c r="AF9" t="n">
         <v>3.341603542672579e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>60</v>
+        <v>59.77213541666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>2536426.527436203</v>
+        <v>2901590.518629235</v>
       </c>
     </row>
     <row r="10">
@@ -20737,28 +20737,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2056.213528014574</v>
+        <v>2351.257198842403</v>
       </c>
       <c r="AB10" t="n">
-        <v>2813.402062768141</v>
+        <v>3217.093829603067</v>
       </c>
       <c r="AC10" t="n">
-        <v>2544.894918532144</v>
+        <v>2910.058909725177</v>
       </c>
       <c r="AD10" t="n">
-        <v>2056213.528014574</v>
+        <v>2351257.198842403</v>
       </c>
       <c r="AE10" t="n">
-        <v>2813402.062768141</v>
+        <v>3217093.829603067</v>
       </c>
       <c r="AF10" t="n">
         <v>3.343137655032634e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>60</v>
+        <v>59.75260416666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>2544894.918532144</v>
+        <v>2910058.909725177</v>
       </c>
     </row>
   </sheetData>
@@ -21034,28 +21034,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3238.022345644334</v>
+        <v>3632.691731063454</v>
       </c>
       <c r="AB2" t="n">
-        <v>4430.405024774771</v>
+        <v>4970.409089489678</v>
       </c>
       <c r="AC2" t="n">
-        <v>4007.573387322605</v>
+        <v>4496.040222001566</v>
       </c>
       <c r="AD2" t="n">
-        <v>3238022.345644334</v>
+        <v>3632691.731063454</v>
       </c>
       <c r="AE2" t="n">
-        <v>4430405.024774771</v>
+        <v>4970409.089489678</v>
       </c>
       <c r="AF2" t="n">
         <v>2.788584838707303e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>82</v>
+        <v>81.45182291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4007573.387322605</v>
+        <v>4496040.222001566</v>
       </c>
     </row>
     <row r="3">
@@ -21140,28 +21140,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2328.485928898914</v>
+        <v>2657.416100545211</v>
       </c>
       <c r="AB3" t="n">
-        <v>3185.937173468854</v>
+        <v>3635.993945690353</v>
       </c>
       <c r="AC3" t="n">
-        <v>2881.875801123773</v>
+        <v>3288.979786663083</v>
       </c>
       <c r="AD3" t="n">
-        <v>2328485.928898914</v>
+        <v>2657416.100545211</v>
       </c>
       <c r="AE3" t="n">
-        <v>3185937.173468854</v>
+        <v>3635993.945690353</v>
       </c>
       <c r="AF3" t="n">
         <v>3.399121992183817e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>67</v>
+        <v>66.82291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2881875.801123773</v>
+        <v>3288979.786663083</v>
       </c>
     </row>
     <row r="4">
@@ -21246,28 +21246,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2072.475600536606</v>
+        <v>2382.603905445611</v>
       </c>
       <c r="AB4" t="n">
-        <v>2835.652547824792</v>
+        <v>3259.983776496672</v>
       </c>
       <c r="AC4" t="n">
-        <v>2565.02184852374</v>
+        <v>2948.855500283673</v>
       </c>
       <c r="AD4" t="n">
-        <v>2072475.600536606</v>
+        <v>2382603.905445611</v>
       </c>
       <c r="AE4" t="n">
-        <v>2835652.547824792</v>
+        <v>3259983.776496672</v>
       </c>
       <c r="AF4" t="n">
         <v>3.612286678340475e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>63</v>
+        <v>62.87760416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2565021.84852374</v>
+        <v>2948855.500283673</v>
       </c>
     </row>
     <row r="5">
@@ -21352,28 +21352,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1933.569759825816</v>
+        <v>2224.897209027385</v>
       </c>
       <c r="AB5" t="n">
-        <v>2645.595448471096</v>
+        <v>3044.202516928834</v>
       </c>
       <c r="AC5" t="n">
-        <v>2393.103531985546</v>
+        <v>2753.668101278098</v>
       </c>
       <c r="AD5" t="n">
-        <v>1933569.759825816</v>
+        <v>2224897.209027384</v>
       </c>
       <c r="AE5" t="n">
-        <v>2645595.448471095</v>
+        <v>3044202.516928833</v>
       </c>
       <c r="AF5" t="n">
         <v>3.722532244339662e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>62</v>
+        <v>61.015625</v>
       </c>
       <c r="AH5" t="n">
-        <v>2393103.531985546</v>
+        <v>2753668.101278098</v>
       </c>
     </row>
     <row r="6">
@@ -21458,28 +21458,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1877.000411402137</v>
+        <v>2168.293695184923</v>
       </c>
       <c r="AB6" t="n">
-        <v>2568.194770294301</v>
+        <v>2966.755092118613</v>
       </c>
       <c r="AC6" t="n">
-        <v>2323.089865901411</v>
+        <v>2683.612149993735</v>
       </c>
       <c r="AD6" t="n">
-        <v>1877000.411402137</v>
+        <v>2168293.695184923</v>
       </c>
       <c r="AE6" t="n">
-        <v>2568194.770294301</v>
+        <v>2966755.092118613</v>
       </c>
       <c r="AF6" t="n">
         <v>3.759164473548253e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>61</v>
+        <v>60.42317708333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2323089.865901411</v>
+        <v>2683612.149993735</v>
       </c>
     </row>
     <row r="7">
@@ -21564,28 +21564,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1889.01518056109</v>
+        <v>2180.308464343875</v>
       </c>
       <c r="AB7" t="n">
-        <v>2584.633907511787</v>
+        <v>2983.194229336098</v>
       </c>
       <c r="AC7" t="n">
-        <v>2337.960074935333</v>
+        <v>2698.482359027659</v>
       </c>
       <c r="AD7" t="n">
-        <v>1889015.18056109</v>
+        <v>2180308.464343875</v>
       </c>
       <c r="AE7" t="n">
-        <v>2584633.907511787</v>
+        <v>2983194.229336098</v>
       </c>
       <c r="AF7" t="n">
         <v>3.757420081681178e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>61</v>
+        <v>60.44921875</v>
       </c>
       <c r="AH7" t="n">
-        <v>2337960.074935333</v>
+        <v>2698482.359027659</v>
       </c>
     </row>
   </sheetData>
@@ -40138,28 +40138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2573.556960623057</v>
+        <v>2927.082237267359</v>
       </c>
       <c r="AB2" t="n">
-        <v>3521.254170844708</v>
+        <v>4004.963050783935</v>
       </c>
       <c r="AC2" t="n">
-        <v>3185.190614890425</v>
+        <v>3622.73499821791</v>
       </c>
       <c r="AD2" t="n">
-        <v>2573556.960623057</v>
+        <v>2927082.237267359</v>
       </c>
       <c r="AE2" t="n">
-        <v>3521254.170844708</v>
+        <v>4004963.050783935</v>
       </c>
       <c r="AF2" t="n">
         <v>3.390683316132608e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>76</v>
+        <v>75.234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>3185190.614890425</v>
+        <v>3622734.99821791</v>
       </c>
     </row>
     <row r="3">
@@ -40244,28 +40244,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1953.990954020744</v>
+        <v>2260.952228158008</v>
       </c>
       <c r="AB3" t="n">
-        <v>2673.536627288101</v>
+        <v>3093.534584738537</v>
       </c>
       <c r="AC3" t="n">
-        <v>2418.378043911947</v>
+        <v>2798.291985774033</v>
       </c>
       <c r="AD3" t="n">
-        <v>1953990.954020744</v>
+        <v>2260952.228158007</v>
       </c>
       <c r="AE3" t="n">
-        <v>2673536.627288101</v>
+        <v>3093534.584738537</v>
       </c>
       <c r="AF3" t="n">
         <v>3.969771592218117e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>65</v>
+        <v>64.2578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2418378.043911947</v>
+        <v>2798291.985774033</v>
       </c>
     </row>
     <row r="4">
@@ -40350,28 +40350,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1762.9351009184</v>
+        <v>2060.556242219227</v>
       </c>
       <c r="AB4" t="n">
-        <v>2412.125580284108</v>
+        <v>2819.343955929977</v>
       </c>
       <c r="AC4" t="n">
-        <v>2181.915700341307</v>
+        <v>2550.269725750114</v>
       </c>
       <c r="AD4" t="n">
-        <v>1762935.1009184</v>
+        <v>2060556.242219227</v>
       </c>
       <c r="AE4" t="n">
-        <v>2412125.580284108</v>
+        <v>2819343.955929977</v>
       </c>
       <c r="AF4" t="n">
         <v>4.152352875476471e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>62</v>
+        <v>61.43229166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2181915.700341308</v>
+        <v>2550269.725750114</v>
       </c>
     </row>
     <row r="5">
@@ -40456,28 +40456,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1760.947550017936</v>
+        <v>2049.331054738672</v>
       </c>
       <c r="AB5" t="n">
-        <v>2409.406125457537</v>
+        <v>2803.985159198761</v>
       </c>
       <c r="AC5" t="n">
-        <v>2179.455786466605</v>
+        <v>2536.376751022719</v>
       </c>
       <c r="AD5" t="n">
-        <v>1760947.550017936</v>
+        <v>2049331.054738672</v>
       </c>
       <c r="AE5" t="n">
-        <v>2409406.125457537</v>
+        <v>2803985.159198761</v>
       </c>
       <c r="AF5" t="n">
         <v>4.164107035342888e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>62</v>
+        <v>61.25651041666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2179455.786466605</v>
+        <v>2536376.751022719</v>
       </c>
     </row>
   </sheetData>
@@ -40753,28 +40753,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1567.380938667288</v>
+        <v>1877.314933204151</v>
       </c>
       <c r="AB2" t="n">
-        <v>2144.559748251379</v>
+        <v>2568.625112899538</v>
       </c>
       <c r="AC2" t="n">
-        <v>1939.885975786777</v>
+        <v>2323.479137212394</v>
       </c>
       <c r="AD2" t="n">
-        <v>1567380.938667288</v>
+        <v>1877314.933204151</v>
       </c>
       <c r="AE2" t="n">
-        <v>2144559.748251379</v>
+        <v>2568625.112899538</v>
       </c>
       <c r="AF2" t="n">
         <v>5.129129430855352e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.77473958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1939885.975786777</v>
+        <v>2323479.137212394</v>
       </c>
     </row>
     <row r="3">
@@ -40859,28 +40859,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1534.997516390258</v>
+        <v>1844.89734550834</v>
       </c>
       <c r="AB3" t="n">
-        <v>2100.251321236186</v>
+        <v>2524.269939251097</v>
       </c>
       <c r="AC3" t="n">
-        <v>1899.806282858646</v>
+        <v>2283.357159084083</v>
       </c>
       <c r="AD3" t="n">
-        <v>1534997.516390258</v>
+        <v>1844897.34550834</v>
       </c>
       <c r="AE3" t="n">
-        <v>2100251.321236186</v>
+        <v>2524269.939251097</v>
       </c>
       <c r="AF3" t="n">
         <v>5.201677230443121e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>65</v>
+        <v>64.86328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1899806.282858646</v>
+        <v>2283357.159084083</v>
       </c>
     </row>
   </sheetData>
@@ -41156,28 +41156,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5704.365601976308</v>
+        <v>6214.146170907477</v>
       </c>
       <c r="AB2" t="n">
-        <v>7804.964675473599</v>
+        <v>8502.468939816708</v>
       </c>
       <c r="AC2" t="n">
-        <v>7060.069801182826</v>
+        <v>7691.005237490384</v>
       </c>
       <c r="AD2" t="n">
-        <v>5704365.601976308</v>
+        <v>6214146.170907477</v>
       </c>
       <c r="AE2" t="n">
-        <v>7804964.675473599</v>
+        <v>8502468.939816708</v>
       </c>
       <c r="AF2" t="n">
         <v>1.7607625985338e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>103</v>
+        <v>102.9296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>7060069.801182826</v>
+        <v>7691005.237490385</v>
       </c>
     </row>
     <row r="3">
@@ -41262,28 +41262,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3423.311461807938</v>
+        <v>3798.405938048067</v>
       </c>
       <c r="AB3" t="n">
-        <v>4683.925767888715</v>
+        <v>5197.146578280881</v>
       </c>
       <c r="AC3" t="n">
-        <v>4236.898466532343</v>
+        <v>4701.138203090592</v>
       </c>
       <c r="AD3" t="n">
-        <v>3423311.461807938</v>
+        <v>3798405.938048067</v>
       </c>
       <c r="AE3" t="n">
-        <v>4683925.767888715</v>
+        <v>5197146.578280881</v>
       </c>
       <c r="AF3" t="n">
         <v>2.428599669503379e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>75</v>
+        <v>74.62890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>4236898.466532343</v>
+        <v>4701138.203090592</v>
       </c>
     </row>
     <row r="4">
@@ -41368,28 +41368,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2932.858174749908</v>
+        <v>3269.505075639949</v>
       </c>
       <c r="AB4" t="n">
-        <v>4012.865943263938</v>
+        <v>4473.481084874796</v>
       </c>
       <c r="AC4" t="n">
-        <v>3629.8836497314</v>
+        <v>4046.538328704312</v>
       </c>
       <c r="AD4" t="n">
-        <v>2932858.174749909</v>
+        <v>3269505.075639949</v>
       </c>
       <c r="AE4" t="n">
-        <v>4012865.943263938</v>
+        <v>4473481.084874796</v>
       </c>
       <c r="AF4" t="n">
         <v>2.673575335386342e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>68</v>
+        <v>67.79296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>3629883.6497314</v>
+        <v>4046538.328704312</v>
       </c>
     </row>
     <row r="5">
@@ -41474,28 +41474,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2709.422831710386</v>
+        <v>3036.415131989429</v>
       </c>
       <c r="AB5" t="n">
-        <v>3707.151849645601</v>
+        <v>4154.557140769574</v>
       </c>
       <c r="AC5" t="n">
-        <v>3353.346480135585</v>
+        <v>3758.052038211938</v>
       </c>
       <c r="AD5" t="n">
-        <v>2709422.831710386</v>
+        <v>3036415.131989429</v>
       </c>
       <c r="AE5" t="n">
-        <v>3707151.849645602</v>
+        <v>4154557.140769574</v>
       </c>
       <c r="AF5" t="n">
         <v>2.801909178536395e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>65</v>
+        <v>64.6875</v>
       </c>
       <c r="AH5" t="n">
-        <v>3353346.480135585</v>
+        <v>3758052.038211938</v>
       </c>
     </row>
     <row r="6">
@@ -41580,28 +41580,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2569.193436015772</v>
+        <v>2886.565301102598</v>
       </c>
       <c r="AB6" t="n">
-        <v>3515.283803971903</v>
+        <v>3949.525991242237</v>
       </c>
       <c r="AC6" t="n">
-        <v>3179.790051452498</v>
+        <v>3572.588773832471</v>
       </c>
       <c r="AD6" t="n">
-        <v>2569193.436015773</v>
+        <v>2886565.301102598</v>
       </c>
       <c r="AE6" t="n">
-        <v>3515283.803971902</v>
+        <v>3949525.991242236</v>
       </c>
       <c r="AF6" t="n">
         <v>2.880969507071351e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>63</v>
+        <v>62.91015625</v>
       </c>
       <c r="AH6" t="n">
-        <v>3179790.051452497</v>
+        <v>3572588.773832471</v>
       </c>
     </row>
     <row r="7">
@@ -41686,28 +41686,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2472.371163532618</v>
+        <v>2780.156758846007</v>
       </c>
       <c r="AB7" t="n">
-        <v>3382.807299263248</v>
+        <v>3803.93312931319</v>
       </c>
       <c r="AC7" t="n">
-        <v>3059.9569184213</v>
+        <v>3440.891090305074</v>
       </c>
       <c r="AD7" t="n">
-        <v>2472371.163532618</v>
+        <v>2780156.758846007</v>
       </c>
       <c r="AE7" t="n">
-        <v>3382807.299263248</v>
+        <v>3803933.12931319</v>
       </c>
       <c r="AF7" t="n">
         <v>2.933583598948488e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>62</v>
+        <v>61.77734375</v>
       </c>
       <c r="AH7" t="n">
-        <v>3059956.9184213</v>
+        <v>3440891.090305074</v>
       </c>
     </row>
     <row r="8">
@@ -41792,28 +41792,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2394.779636545675</v>
+        <v>2702.531066440283</v>
       </c>
       <c r="AB8" t="n">
-        <v>3276.643148943126</v>
+        <v>3697.722232359821</v>
       </c>
       <c r="AC8" t="n">
-        <v>2963.924925605414</v>
+        <v>3344.816812289008</v>
       </c>
       <c r="AD8" t="n">
-        <v>2394779.636545675</v>
+        <v>2702531.066440283</v>
       </c>
       <c r="AE8" t="n">
-        <v>3276643.148943126</v>
+        <v>3697722.232359821</v>
       </c>
       <c r="AF8" t="n">
         <v>2.972278618900456e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>61</v>
+        <v>60.9765625</v>
       </c>
       <c r="AH8" t="n">
-        <v>2963924.925605414</v>
+        <v>3344816.812289008</v>
       </c>
     </row>
     <row r="9">
@@ -41898,28 +41898,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2336.810610777578</v>
+        <v>2634.908451091046</v>
       </c>
       <c r="AB9" t="n">
-        <v>3197.327370474287</v>
+        <v>3605.19798673975</v>
       </c>
       <c r="AC9" t="n">
-        <v>2892.178933713249</v>
+        <v>3261.122950812325</v>
       </c>
       <c r="AD9" t="n">
-        <v>2336810.610777578</v>
+        <v>2634908.451091046</v>
       </c>
       <c r="AE9" t="n">
-        <v>3197327.370474287</v>
+        <v>3605197.98673975</v>
       </c>
       <c r="AF9" t="n">
         <v>3.001787051381813e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>61</v>
+        <v>60.37760416666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>2892178.933713248</v>
+        <v>3261122.950812325</v>
       </c>
     </row>
     <row r="10">
@@ -42004,28 +42004,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2260.343672055149</v>
+        <v>2558.508832176321</v>
       </c>
       <c r="AB10" t="n">
-        <v>3092.701931431006</v>
+        <v>3500.66465762731</v>
       </c>
       <c r="AC10" t="n">
-        <v>2797.538799729537</v>
+        <v>3166.566135916933</v>
       </c>
       <c r="AD10" t="n">
-        <v>2260343.672055149</v>
+        <v>2558508.832176321</v>
       </c>
       <c r="AE10" t="n">
-        <v>3092701.931431006</v>
+        <v>3500664.65762731</v>
       </c>
       <c r="AF10" t="n">
         <v>3.02628461797011e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>60</v>
+        <v>59.8828125</v>
       </c>
       <c r="AH10" t="n">
-        <v>2797538.799729537</v>
+        <v>3166566.135916932</v>
       </c>
     </row>
     <row r="11">
@@ -42110,28 +42110,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2222.176874811031</v>
+        <v>2520.342034932203</v>
       </c>
       <c r="AB11" t="n">
-        <v>3040.480435641343</v>
+        <v>3448.443161837647</v>
       </c>
       <c r="AC11" t="n">
-        <v>2750.301250204711</v>
+        <v>3119.328586392107</v>
       </c>
       <c r="AD11" t="n">
-        <v>2222176.874811031</v>
+        <v>2520342.034932203</v>
       </c>
       <c r="AE11" t="n">
-        <v>3040480.435641343</v>
+        <v>3448443.161837647</v>
       </c>
       <c r="AF11" t="n">
         <v>3.043265885718815e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>60</v>
+        <v>59.55729166666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>2750301.250204711</v>
+        <v>3119328.586392107</v>
       </c>
     </row>
     <row r="12">
@@ -42216,28 +42216,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2214.461175348227</v>
+        <v>2512.524850242914</v>
       </c>
       <c r="AB12" t="n">
-        <v>3029.923475243698</v>
+        <v>3437.747344875913</v>
       </c>
       <c r="AC12" t="n">
-        <v>2740.75183129063</v>
+        <v>3109.653563189527</v>
       </c>
       <c r="AD12" t="n">
-        <v>2214461.175348227</v>
+        <v>2512524.850242914</v>
       </c>
       <c r="AE12" t="n">
-        <v>3029923.475243698</v>
+        <v>3437747.344875913</v>
       </c>
       <c r="AF12" t="n">
         <v>3.046606462980855e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>60</v>
+        <v>59.4921875</v>
       </c>
       <c r="AH12" t="n">
-        <v>2740751.831290631</v>
+        <v>3109653.563189527</v>
       </c>
     </row>
     <row r="13">
@@ -42322,28 +42322,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2218.312186733162</v>
+        <v>2516.375861627848</v>
       </c>
       <c r="AB13" t="n">
-        <v>3035.192598915197</v>
+        <v>3443.016468547412</v>
       </c>
       <c r="AC13" t="n">
-        <v>2745.518077194184</v>
+        <v>3114.41980909308</v>
       </c>
       <c r="AD13" t="n">
-        <v>2218312.186733162</v>
+        <v>2516375.861627848</v>
       </c>
       <c r="AE13" t="n">
-        <v>3035192.598915197</v>
+        <v>3443016.468547412</v>
       </c>
       <c r="AF13" t="n">
         <v>3.048555133050379e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>60</v>
+        <v>59.44661458333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>2745518.077194184</v>
+        <v>3114419.80909308</v>
       </c>
     </row>
   </sheetData>
@@ -42619,28 +42619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8103.850320365952</v>
+        <v>8717.00088742082</v>
       </c>
       <c r="AB2" t="n">
-        <v>11088.04552496921</v>
+        <v>11926.98518110763</v>
       </c>
       <c r="AC2" t="n">
-        <v>10029.81802223536</v>
+        <v>10788.6904550511</v>
       </c>
       <c r="AD2" t="n">
-        <v>8103850.320365952</v>
+        <v>8717000.88742082</v>
       </c>
       <c r="AE2" t="n">
-        <v>11088045.52496921</v>
+        <v>11926985.18110763</v>
       </c>
       <c r="AF2" t="n">
         <v>1.348278710096016e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>122</v>
+        <v>121.4583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>10029818.02223536</v>
+        <v>10788690.4550511</v>
       </c>
     </row>
     <row r="3">
@@ -42725,28 +42725,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4228.0908265054</v>
+        <v>4627.246141597976</v>
       </c>
       <c r="AB3" t="n">
-        <v>5785.060399027644</v>
+        <v>6331.202310627024</v>
       </c>
       <c r="AC3" t="n">
-        <v>5232.942353927491</v>
+        <v>5726.961247998794</v>
       </c>
       <c r="AD3" t="n">
-        <v>4228090.8265054</v>
+        <v>4627246.141597976</v>
       </c>
       <c r="AE3" t="n">
-        <v>5785060.399027644</v>
+        <v>6331202.310627025</v>
       </c>
       <c r="AF3" t="n">
         <v>2.034492202846376e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>81</v>
+        <v>80.50130208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>5232942.353927491</v>
+        <v>5726961.247998794</v>
       </c>
     </row>
     <row r="4">
@@ -42831,28 +42831,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3511.358035808139</v>
+        <v>3871.432385083609</v>
       </c>
       <c r="AB4" t="n">
-        <v>4804.394974776499</v>
+        <v>5297.064584814384</v>
       </c>
       <c r="AC4" t="n">
-        <v>4345.870261394345</v>
+        <v>4791.520175316336</v>
       </c>
       <c r="AD4" t="n">
-        <v>3511358.035808139</v>
+        <v>3871432.385083609</v>
       </c>
       <c r="AE4" t="n">
-        <v>4804394.974776499</v>
+        <v>5297064.584814384</v>
       </c>
       <c r="AF4" t="n">
         <v>2.29534388612428e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>72</v>
+        <v>71.34765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>4345870.261394345</v>
+        <v>4791520.175316337</v>
       </c>
     </row>
     <row r="5">
@@ -42937,28 +42937,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3198.496044046021</v>
+        <v>3529.429737780173</v>
       </c>
       <c r="AB5" t="n">
-        <v>4376.323395150599</v>
+        <v>4829.12147468186</v>
       </c>
       <c r="AC5" t="n">
-        <v>3958.653232525722</v>
+        <v>4368.236898852599</v>
       </c>
       <c r="AD5" t="n">
-        <v>3198496.044046022</v>
+        <v>3529429.737780173</v>
       </c>
       <c r="AE5" t="n">
-        <v>4376323.395150599</v>
+        <v>4829121.47468186</v>
       </c>
       <c r="AF5" t="n">
         <v>2.435202647843195e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>68</v>
+        <v>67.24609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>3958653.232525722</v>
+        <v>4368236.898852599</v>
       </c>
     </row>
     <row r="6">
@@ -43043,28 +43043,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3028.939506828575</v>
+        <v>3350.136871769768</v>
       </c>
       <c r="AB6" t="n">
-        <v>4144.328660623189</v>
+        <v>4583.80506556341</v>
       </c>
       <c r="AC6" t="n">
-        <v>3748.799749854961</v>
+        <v>4146.33314351668</v>
       </c>
       <c r="AD6" t="n">
-        <v>3028939.506828575</v>
+        <v>3350136.871769768</v>
       </c>
       <c r="AE6" t="n">
-        <v>4144328.660623189</v>
+        <v>4583805.06556341</v>
       </c>
       <c r="AF6" t="n">
         <v>2.518463889082334e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>66</v>
+        <v>65.02604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3748799.749854961</v>
+        <v>4146333.14351668</v>
       </c>
     </row>
     <row r="7">
@@ -43149,28 +43149,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2902.59664662321</v>
+        <v>3223.827165953327</v>
       </c>
       <c r="AB7" t="n">
-        <v>3971.460785436589</v>
+        <v>4410.982553674404</v>
       </c>
       <c r="AC7" t="n">
-        <v>3592.430142054591</v>
+        <v>3990.004569604449</v>
       </c>
       <c r="AD7" t="n">
-        <v>2902596.646623211</v>
+        <v>3223827.165953327</v>
       </c>
       <c r="AE7" t="n">
-        <v>3971460.785436589</v>
+        <v>4410982.553674404</v>
       </c>
       <c r="AF7" t="n">
         <v>2.577576854916767e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>64</v>
+        <v>63.53515625</v>
       </c>
       <c r="AH7" t="n">
-        <v>3592430.142054591</v>
+        <v>3990004.569604449</v>
       </c>
     </row>
     <row r="8">
@@ -43255,28 +43255,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2812.578639421692</v>
+        <v>3124.005510151144</v>
       </c>
       <c r="AB8" t="n">
-        <v>3848.294176669267</v>
+        <v>4274.402160385202</v>
       </c>
       <c r="AC8" t="n">
-        <v>3481.018381562606</v>
+        <v>3866.459217358987</v>
       </c>
       <c r="AD8" t="n">
-        <v>2812578.639421692</v>
+        <v>3124005.510151144</v>
       </c>
       <c r="AE8" t="n">
-        <v>3848294.176669267</v>
+        <v>4274402.160385202</v>
       </c>
       <c r="AF8" t="n">
         <v>2.621345604087794e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>63</v>
+        <v>62.47395833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>3481018.381562606</v>
+        <v>3866459.217358987</v>
       </c>
     </row>
     <row r="9">
@@ -43361,28 +43361,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2738.996494214546</v>
+        <v>3050.490684751702</v>
       </c>
       <c r="AB9" t="n">
-        <v>3747.615839381704</v>
+        <v>4173.81593302848</v>
       </c>
       <c r="AC9" t="n">
-        <v>3389.948643482838</v>
+        <v>3775.472798367538</v>
       </c>
       <c r="AD9" t="n">
-        <v>2738996.494214545</v>
+        <v>3050490.684751702</v>
       </c>
       <c r="AE9" t="n">
-        <v>3747615.839381704</v>
+        <v>4173815.93302848</v>
       </c>
       <c r="AF9" t="n">
         <v>2.654046393698332e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>62</v>
+        <v>61.70572916666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>3389948.643482838</v>
+        <v>3775472.798367538</v>
       </c>
     </row>
     <row r="10">
@@ -43467,28 +43467,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2688.401769058109</v>
+        <v>2990.126476413382</v>
       </c>
       <c r="AB10" t="n">
-        <v>3678.389904340922</v>
+        <v>4091.222960099065</v>
       </c>
       <c r="AC10" t="n">
-        <v>3327.329534523141</v>
+        <v>3700.762382854544</v>
       </c>
       <c r="AD10" t="n">
-        <v>2688401.769058109</v>
+        <v>2990126.476413382</v>
       </c>
       <c r="AE10" t="n">
-        <v>3678389.904340922</v>
+        <v>4091222.960099065</v>
       </c>
       <c r="AF10" t="n">
         <v>2.677943124567571e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>62</v>
+        <v>61.15234375</v>
       </c>
       <c r="AH10" t="n">
-        <v>3327329.534523141</v>
+        <v>3700762.382854544</v>
       </c>
     </row>
     <row r="11">
@@ -43573,28 +43573,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2631.742951581617</v>
+        <v>2933.534978744594</v>
       </c>
       <c r="AB11" t="n">
-        <v>3600.866810658968</v>
+        <v>4013.791976347951</v>
       </c>
       <c r="AC11" t="n">
-        <v>3257.20513609785</v>
+        <v>3630.721303517572</v>
       </c>
       <c r="AD11" t="n">
-        <v>2631742.951581617</v>
+        <v>2933534.978744594</v>
       </c>
       <c r="AE11" t="n">
-        <v>3600866.810658968</v>
+        <v>4013791.976347951</v>
       </c>
       <c r="AF11" t="n">
         <v>2.698569776475756e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>61</v>
+        <v>60.69010416666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>3257205.13609785</v>
+        <v>3630721.303517572</v>
       </c>
     </row>
     <row r="12">
@@ -43679,28 +43679,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2582.945776106251</v>
+        <v>2884.636318042743</v>
       </c>
       <c r="AB12" t="n">
-        <v>3534.100362394122</v>
+        <v>3946.886671519016</v>
       </c>
       <c r="AC12" t="n">
-        <v>3196.810783948105</v>
+        <v>3570.201347079326</v>
       </c>
       <c r="AD12" t="n">
-        <v>2582945.776106251</v>
+        <v>2884636.318042743</v>
       </c>
       <c r="AE12" t="n">
-        <v>3534100.362394122</v>
+        <v>3946886.671519016</v>
       </c>
       <c r="AF12" t="n">
         <v>2.715171715816491e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>61</v>
+        <v>60.31901041666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>3196810.783948105</v>
+        <v>3570201.347079326</v>
       </c>
     </row>
     <row r="13">
@@ -43785,28 +43785,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2537.122172652793</v>
+        <v>2838.880034396989</v>
       </c>
       <c r="AB13" t="n">
-        <v>3471.402486554389</v>
+        <v>3884.280905610125</v>
       </c>
       <c r="AC13" t="n">
-        <v>3140.096705381496</v>
+        <v>3513.570587601038</v>
       </c>
       <c r="AD13" t="n">
-        <v>2537122.172652793</v>
+        <v>2838880.034396989</v>
       </c>
       <c r="AE13" t="n">
-        <v>3471402.486554389</v>
+        <v>3884280.905610125</v>
       </c>
       <c r="AF13" t="n">
         <v>2.73152211062176e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>60</v>
+        <v>59.95442708333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>3140096.705381496</v>
+        <v>3513570.587601038</v>
       </c>
     </row>
     <row r="14">
@@ -43891,28 +43891,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2498.757188639833</v>
+        <v>2800.515050384029</v>
       </c>
       <c r="AB14" t="n">
-        <v>3418.909822884213</v>
+        <v>3831.788241939949</v>
       </c>
       <c r="AC14" t="n">
-        <v>3092.613867858088</v>
+        <v>3466.08775007763</v>
       </c>
       <c r="AD14" t="n">
-        <v>2498757.188639833</v>
+        <v>2800515.050384029</v>
       </c>
       <c r="AE14" t="n">
-        <v>3418909.822884213</v>
+        <v>3831788.241939949</v>
       </c>
       <c r="AF14" t="n">
         <v>2.743596248324112e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>60</v>
+        <v>59.69401041666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>3092613.867858088</v>
+        <v>3466087.750077629</v>
       </c>
     </row>
     <row r="15">
@@ -43997,28 +43997,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2460.667681571562</v>
+        <v>2762.324058089273</v>
       </c>
       <c r="AB15" t="n">
-        <v>3366.794078922946</v>
+        <v>3779.533641414593</v>
       </c>
       <c r="AC15" t="n">
-        <v>3045.471977355581</v>
+        <v>3418.820255286623</v>
       </c>
       <c r="AD15" t="n">
-        <v>2460667.681571562</v>
+        <v>2762324.058089273</v>
       </c>
       <c r="AE15" t="n">
-        <v>3366794.078922946</v>
+        <v>3779533.641414593</v>
       </c>
       <c r="AF15" t="n">
         <v>2.753154940671808e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>60</v>
+        <v>59.47916666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>3045471.977355581</v>
+        <v>3418820.255286623</v>
       </c>
     </row>
     <row r="16">
@@ -44103,28 +44103,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2434.274312848389</v>
+        <v>2726.262691410702</v>
       </c>
       <c r="AB16" t="n">
-        <v>3330.68150744265</v>
+        <v>3730.192888609752</v>
       </c>
       <c r="AC16" t="n">
-        <v>3012.805939013052</v>
+        <v>3374.188514679297</v>
       </c>
       <c r="AD16" t="n">
-        <v>2434274.312848389</v>
+        <v>2726262.691410702</v>
       </c>
       <c r="AE16" t="n">
-        <v>3330681.50744265</v>
+        <v>3730192.888609752</v>
       </c>
       <c r="AF16" t="n">
         <v>2.759946643129381e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>60</v>
+        <v>59.3359375</v>
       </c>
       <c r="AH16" t="n">
-        <v>3012805.939013052</v>
+        <v>3374188.514679297</v>
       </c>
     </row>
     <row r="17">
@@ -44209,28 +44209,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2427.908971399287</v>
+        <v>2719.8973499616</v>
       </c>
       <c r="AB17" t="n">
-        <v>3321.972166452942</v>
+        <v>3721.483547620045</v>
       </c>
       <c r="AC17" t="n">
-        <v>3004.927805303766</v>
+        <v>3366.310380970011</v>
       </c>
       <c r="AD17" t="n">
-        <v>2427908.971399287</v>
+        <v>2719897.3499616</v>
       </c>
       <c r="AE17" t="n">
-        <v>3321972.166452942</v>
+        <v>3721483.547620045</v>
       </c>
       <c r="AF17" t="n">
         <v>2.763216722090435e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>60</v>
+        <v>59.26432291666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>3004927.805303766</v>
+        <v>3366310.380970011</v>
       </c>
     </row>
     <row r="18">
@@ -44315,28 +44315,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2430.669753945612</v>
+        <v>2722.658132507925</v>
       </c>
       <c r="AB18" t="n">
-        <v>3325.749590929954</v>
+        <v>3725.260972097056</v>
       </c>
       <c r="AC18" t="n">
-        <v>3008.344717690341</v>
+        <v>3369.727293356586</v>
       </c>
       <c r="AD18" t="n">
-        <v>2430669.753945612</v>
+        <v>2722658.132507925</v>
       </c>
       <c r="AE18" t="n">
-        <v>3325749.590929954</v>
+        <v>3725260.972097056</v>
       </c>
       <c r="AF18" t="n">
         <v>2.764222900232298e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>60</v>
+        <v>59.24479166666666</v>
       </c>
       <c r="AH18" t="n">
-        <v>3008344.717690341</v>
+        <v>3369727.293356585</v>
       </c>
     </row>
     <row r="19">
@@ -44421,28 +44421,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2438.672731621101</v>
+        <v>2730.661110183414</v>
       </c>
       <c r="AB19" t="n">
-        <v>3336.699618052015</v>
+        <v>3736.210999219118</v>
       </c>
       <c r="AC19" t="n">
-        <v>3018.249689592332</v>
+        <v>3379.632265258577</v>
       </c>
       <c r="AD19" t="n">
-        <v>2438672.731621101</v>
+        <v>2730661.110183414</v>
       </c>
       <c r="AE19" t="n">
-        <v>3336699.618052016</v>
+        <v>3736210.999219118</v>
       </c>
       <c r="AF19" t="n">
         <v>2.764474444767763e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>60</v>
+        <v>59.23828125</v>
       </c>
       <c r="AH19" t="n">
-        <v>3018249.689592332</v>
+        <v>3379632.265258577</v>
       </c>
     </row>
   </sheetData>
@@ -44718,28 +44718,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1445.188978534774</v>
+        <v>1770.154579156969</v>
       </c>
       <c r="AB2" t="n">
-        <v>1977.371317669252</v>
+        <v>2422.003588911021</v>
       </c>
       <c r="AC2" t="n">
-        <v>1788.653774368972</v>
+        <v>2190.850965688739</v>
       </c>
       <c r="AD2" t="n">
-        <v>1445188.978534774</v>
+        <v>1770154.579156969</v>
       </c>
       <c r="AE2" t="n">
-        <v>1977371.317669251</v>
+        <v>2422003.588911021</v>
       </c>
       <c r="AF2" t="n">
         <v>5.764660442288161e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>69</v>
+        <v>68.91927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1788653.774368972</v>
+        <v>2190850.965688739</v>
       </c>
     </row>
   </sheetData>
@@ -45015,28 +45015,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3587.635358171599</v>
+        <v>4003.029607777896</v>
       </c>
       <c r="AB2" t="n">
-        <v>4908.760972352155</v>
+        <v>5477.121710564439</v>
       </c>
       <c r="AC2" t="n">
-        <v>4440.275714639974</v>
+        <v>4954.392901696563</v>
       </c>
       <c r="AD2" t="n">
-        <v>3587635.358171599</v>
+        <v>4003029.607777896</v>
       </c>
       <c r="AE2" t="n">
-        <v>4908760.972352155</v>
+        <v>5477121.710564439</v>
       </c>
       <c r="AF2" t="n">
         <v>2.558392053349426e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>85</v>
+        <v>84.66145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4440275.714639975</v>
+        <v>4954392.901696563</v>
       </c>
     </row>
     <row r="3">
@@ -45121,28 +45121,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2516.772847965809</v>
+        <v>2847.145972438551</v>
       </c>
       <c r="AB3" t="n">
-        <v>3443.559642768811</v>
+        <v>3895.590726706041</v>
       </c>
       <c r="AC3" t="n">
-        <v>3114.911143529138</v>
+        <v>3523.801015244992</v>
       </c>
       <c r="AD3" t="n">
-        <v>2516772.847965809</v>
+        <v>2847145.972438551</v>
       </c>
       <c r="AE3" t="n">
-        <v>3443559.642768811</v>
+        <v>3895590.726706041</v>
       </c>
       <c r="AF3" t="n">
         <v>3.180856491817147e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>69</v>
+        <v>68.09244791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3114911.143529138</v>
+        <v>3523801.015244992</v>
       </c>
     </row>
     <row r="4">
@@ -45227,28 +45227,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2225.558230959783</v>
+        <v>2537.112459519202</v>
       </c>
       <c r="AB4" t="n">
-        <v>3045.106956298971</v>
+        <v>3471.389196616497</v>
       </c>
       <c r="AC4" t="n">
-        <v>2754.486222224138</v>
+        <v>3140.084683816624</v>
       </c>
       <c r="AD4" t="n">
-        <v>2225558.230959783</v>
+        <v>2537112.459519202</v>
       </c>
       <c r="AE4" t="n">
-        <v>3045106.956298972</v>
+        <v>3471389.196616497</v>
       </c>
       <c r="AF4" t="n">
         <v>3.400432402767813e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>64</v>
+        <v>63.69791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2754486.222224138</v>
+        <v>3140084.683816624</v>
       </c>
     </row>
     <row r="5">
@@ -45333,28 +45333,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2071.135085424937</v>
+        <v>2373.246206123843</v>
       </c>
       <c r="AB5" t="n">
-        <v>2833.818395909653</v>
+        <v>3247.18015945207</v>
       </c>
       <c r="AC5" t="n">
-        <v>2563.362745493133</v>
+        <v>2937.273842479819</v>
       </c>
       <c r="AD5" t="n">
-        <v>2071135.085424937</v>
+        <v>2373246.206123842</v>
       </c>
       <c r="AE5" t="n">
-        <v>2833818.395909653</v>
+        <v>3247180.15945207</v>
       </c>
       <c r="AF5" t="n">
         <v>3.515876101403996e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>62</v>
+        <v>61.60807291666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2563362.745493133</v>
+        <v>2937273.842479819</v>
       </c>
     </row>
     <row r="6">
@@ -45439,28 +45439,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1964.91890404985</v>
+        <v>2257.519597080537</v>
       </c>
       <c r="AB6" t="n">
-        <v>2688.488730625053</v>
+        <v>3088.837907461347</v>
       </c>
       <c r="AC6" t="n">
-        <v>2431.903139491829</v>
+        <v>2794.04355278435</v>
       </c>
       <c r="AD6" t="n">
-        <v>1964918.90404985</v>
+        <v>2257519.597080537</v>
       </c>
       <c r="AE6" t="n">
-        <v>2688488.730625053</v>
+        <v>3088837.907461347</v>
       </c>
       <c r="AF6" t="n">
         <v>3.583079637785867e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>61</v>
+        <v>60.44921875</v>
       </c>
       <c r="AH6" t="n">
-        <v>2431903.139491829</v>
+        <v>2794043.55278435</v>
       </c>
     </row>
     <row r="7">
@@ -45545,28 +45545,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1942.396725698272</v>
+        <v>2234.997418728959</v>
       </c>
       <c r="AB7" t="n">
-        <v>2657.672892596041</v>
+        <v>3058.022069432332</v>
       </c>
       <c r="AC7" t="n">
-        <v>2404.028321794005</v>
+        <v>2766.168735086526</v>
       </c>
       <c r="AD7" t="n">
-        <v>1942396.725698272</v>
+        <v>2234997.418728959</v>
       </c>
       <c r="AE7" t="n">
-        <v>2657672.89259604</v>
+        <v>3058022.069432332</v>
       </c>
       <c r="AF7" t="n">
         <v>3.598050722623412e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>61</v>
+        <v>60.20182291666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2404028.321794006</v>
+        <v>2766168.735086526</v>
       </c>
     </row>
     <row r="8">
@@ -45651,28 +45651,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1949.056167062101</v>
+        <v>2241.656860092788</v>
       </c>
       <c r="AB8" t="n">
-        <v>2666.784634063849</v>
+        <v>3067.133810900143</v>
       </c>
       <c r="AC8" t="n">
-        <v>2412.270451444536</v>
+        <v>2774.410864737057</v>
       </c>
       <c r="AD8" t="n">
-        <v>1949056.167062101</v>
+        <v>2241656.860092788</v>
       </c>
       <c r="AE8" t="n">
-        <v>2666784.634063849</v>
+        <v>3067133.810900142</v>
       </c>
       <c r="AF8" t="n">
         <v>3.600712248816754e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>61</v>
+        <v>60.15625</v>
       </c>
       <c r="AH8" t="n">
-        <v>2412270.451444536</v>
+        <v>2774410.864737057</v>
       </c>
     </row>
   </sheetData>
@@ -45948,28 +45948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4780.620641985351</v>
+        <v>5248.643275428291</v>
       </c>
       <c r="AB2" t="n">
-        <v>6541.056068462448</v>
+        <v>7181.425283240464</v>
       </c>
       <c r="AC2" t="n">
-        <v>5916.786857717996</v>
+        <v>6496.04013340141</v>
       </c>
       <c r="AD2" t="n">
-        <v>4780620.64198535</v>
+        <v>5248643.27542829</v>
       </c>
       <c r="AE2" t="n">
-        <v>6541056.068462448</v>
+        <v>7181425.283240464</v>
       </c>
       <c r="AF2" t="n">
         <v>2.027173909369471e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>96</v>
+        <v>95.14322916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5916786.857717996</v>
+        <v>6496040.133401411</v>
       </c>
     </row>
     <row r="3">
@@ -46054,28 +46054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3049.407974611243</v>
+        <v>3412.359335002763</v>
       </c>
       <c r="AB3" t="n">
-        <v>4172.334521248502</v>
+        <v>4668.94058482014</v>
       </c>
       <c r="AC3" t="n">
-        <v>3774.132770448667</v>
+        <v>4223.343448303996</v>
       </c>
       <c r="AD3" t="n">
-        <v>3049407.974611243</v>
+        <v>3412359.335002763</v>
       </c>
       <c r="AE3" t="n">
-        <v>4172334.521248502</v>
+        <v>4668940.584820139</v>
       </c>
       <c r="AF3" t="n">
         <v>2.680976747010626e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>72</v>
+        <v>71.94010416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3774132.770448667</v>
+        <v>4223343.448303996</v>
       </c>
     </row>
     <row r="4">
@@ -46160,28 +46160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2658.480765420691</v>
+        <v>2983.21334504558</v>
       </c>
       <c r="AB4" t="n">
-        <v>3637.450667142686</v>
+        <v>4081.764108775806</v>
       </c>
       <c r="AC4" t="n">
-        <v>3290.297480664526</v>
+        <v>3692.206271025996</v>
       </c>
       <c r="AD4" t="n">
-        <v>2658480.765420691</v>
+        <v>2983213.34504558</v>
       </c>
       <c r="AE4" t="n">
-        <v>3637450.667142686</v>
+        <v>4081764.108775806</v>
       </c>
       <c r="AF4" t="n">
         <v>2.917376685586812e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>67</v>
+        <v>66.10677083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3290297.480664526</v>
+        <v>3692206.271025996</v>
       </c>
     </row>
     <row r="5">
@@ -46266,28 +46266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2464.135286636144</v>
+        <v>2779.27875289313</v>
       </c>
       <c r="AB5" t="n">
-        <v>3371.538609152247</v>
+        <v>3802.731802833575</v>
       </c>
       <c r="AC5" t="n">
-        <v>3049.763696278786</v>
+        <v>3439.804416738602</v>
       </c>
       <c r="AD5" t="n">
-        <v>2464135.286636144</v>
+        <v>2779278.75289313</v>
       </c>
       <c r="AE5" t="n">
-        <v>3371538.609152247</v>
+        <v>3802731.802833575</v>
       </c>
       <c r="AF5" t="n">
         <v>3.040316503267409e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>64</v>
+        <v>63.4375</v>
       </c>
       <c r="AH5" t="n">
-        <v>3049763.696278786</v>
+        <v>3439804.416738601</v>
       </c>
     </row>
     <row r="6">
@@ -46372,28 +46372,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2339.911845534605</v>
+        <v>2645.601849068953</v>
       </c>
       <c r="AB6" t="n">
-        <v>3201.570616685673</v>
+        <v>3619.829165612548</v>
       </c>
       <c r="AC6" t="n">
-        <v>2896.017210461653</v>
+        <v>3274.357750508492</v>
       </c>
       <c r="AD6" t="n">
-        <v>2339911.845534605</v>
+        <v>2645601.849068954</v>
       </c>
       <c r="AE6" t="n">
-        <v>3201570.616685673</v>
+        <v>3619829.165612549</v>
       </c>
       <c r="AF6" t="n">
         <v>3.113191672302173e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>62</v>
+        <v>61.94661458333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2896017.210461653</v>
+        <v>3274357.750508492</v>
       </c>
     </row>
     <row r="7">
@@ -46478,28 +46478,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2249.296095964562</v>
+        <v>2554.95193408013</v>
       </c>
       <c r="AB7" t="n">
-        <v>3077.586150439205</v>
+        <v>3495.797952732832</v>
       </c>
       <c r="AC7" t="n">
-        <v>2783.865647660461</v>
+        <v>3162.16390250712</v>
       </c>
       <c r="AD7" t="n">
-        <v>2249296.095964562</v>
+        <v>2554951.93408013</v>
       </c>
       <c r="AE7" t="n">
-        <v>3077586.150439205</v>
+        <v>3495797.952732832</v>
       </c>
       <c r="AF7" t="n">
         <v>3.16384880199707e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>61</v>
+        <v>60.95703125</v>
       </c>
       <c r="AH7" t="n">
-        <v>2783865.647660461</v>
+        <v>3162163.90250712</v>
       </c>
     </row>
     <row r="8">
@@ -46584,28 +46584,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2177.759797537492</v>
+        <v>2473.827533315017</v>
       </c>
       <c r="AB8" t="n">
-        <v>2979.707030972361</v>
+        <v>3384.799968650026</v>
       </c>
       <c r="AC8" t="n">
-        <v>2695.327973981442</v>
+        <v>3061.759410238532</v>
       </c>
       <c r="AD8" t="n">
-        <v>2177759.797537492</v>
+        <v>2473827.533315017</v>
       </c>
       <c r="AE8" t="n">
-        <v>2979707.030972361</v>
+        <v>3384799.968650026</v>
       </c>
       <c r="AF8" t="n">
         <v>3.204137513333362e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>61</v>
+        <v>60.1953125</v>
       </c>
       <c r="AH8" t="n">
-        <v>2695327.973981442</v>
+        <v>3061759.410238532</v>
       </c>
     </row>
     <row r="9">
@@ -46690,28 +46690,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2114.868022601745</v>
+        <v>2411.003078186975</v>
       </c>
       <c r="AB9" t="n">
-        <v>2893.655729915984</v>
+        <v>3298.840777524485</v>
       </c>
       <c r="AC9" t="n">
-        <v>2617.489288324125</v>
+        <v>2984.004043669534</v>
       </c>
       <c r="AD9" t="n">
-        <v>2114868.022601746</v>
+        <v>2411003.078186975</v>
       </c>
       <c r="AE9" t="n">
-        <v>2893655.729915984</v>
+        <v>3298840.777524485</v>
       </c>
       <c r="AF9" t="n">
         <v>3.225466831099635e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>60</v>
+        <v>59.79166666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>2617489.288324125</v>
+        <v>2984004.043669534</v>
       </c>
     </row>
     <row r="10">
@@ -46796,28 +46796,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2107.276826413891</v>
+        <v>2403.41188199912</v>
       </c>
       <c r="AB10" t="n">
-        <v>2883.269120391821</v>
+        <v>3288.454168000322</v>
       </c>
       <c r="AC10" t="n">
-        <v>2608.093962235251</v>
+        <v>2974.608717580659</v>
       </c>
       <c r="AD10" t="n">
-        <v>2107276.826413891</v>
+        <v>2403411.88199912</v>
       </c>
       <c r="AE10" t="n">
-        <v>2883269.120391821</v>
+        <v>3288454.168000322</v>
       </c>
       <c r="AF10" t="n">
         <v>3.231687882114798e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>60</v>
+        <v>59.68098958333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>2608093.962235251</v>
+        <v>2974608.717580659</v>
       </c>
     </row>
     <row r="11">
@@ -46902,28 +46902,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2112.515505490699</v>
+        <v>2408.650561075928</v>
       </c>
       <c r="AB11" t="n">
-        <v>2890.436912218919</v>
+        <v>3295.621959827421</v>
       </c>
       <c r="AC11" t="n">
-        <v>2614.57767007043</v>
+        <v>2981.092425415838</v>
       </c>
       <c r="AD11" t="n">
-        <v>2112515.505490699</v>
+        <v>2408650.561075928</v>
       </c>
       <c r="AE11" t="n">
-        <v>2890436.912218919</v>
+        <v>3295621.959827421</v>
       </c>
       <c r="AF11" t="n">
         <v>3.233465325261987e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>60</v>
+        <v>59.6484375</v>
       </c>
       <c r="AH11" t="n">
-        <v>2614577.67007043</v>
+        <v>2981092.425415838</v>
       </c>
     </row>
   </sheetData>
